--- a/Project_python/out/test_top2vec2_negminilm_abstracts.xlsx
+++ b/Project_python/out/test_top2vec2_negminilm_abstracts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H165"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,20 +451,25 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>stats</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>prediction</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>scores</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>all_valid</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>any_valid</t>
         </is>
@@ -486,24 +491,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.15|x2: 0.21|x3: 0.29|x4: 0.25|x5: 0.28|x6: 0.30|x7: 0.27|x8: 0.21|x9: 0.21|x10: 0.15|x11: 0.26|x12: 0.29|x13: 0.31|x14: 0.20|x15: 0.18|x16: 0.36|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.21|x3: 0.29|x4: 0.25|x5: 0.28|x6: 0.30|x7: 0.27|x8: 0.36|x9: 0.42|x10: 0.33|x11: 0.26|x12: 0.29|x13: 0.31|x14: 0.00|x15: 0.00|x16: 0.36|x17: 0.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[16, 13, 6, 3, 12, 5, 7, 11, 4, 9, 8, 2]</t>
+          <t>[0.00, 0.24, 0.42]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.35906166306404697, 0.3074721212488454, 0.29899597947661505, 0.2864943660521068, 0.28569478144001215, 0.2767460983506753, 0.27082734597510527, 0.2627109003650179, 0.24857694790639506, 0.2102992205987816, 0.20823247716811039, 0.207748236822618]</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+          <t>[9, 16, 8, 10, 13, 6, 3, 12, 5, 7, 11, 4, 1, 2]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[0.4175366712636872, 0.35906166306404697, 0.35574095000415984, 0.3329485144660956, 0.3074721510511689, 0.29899597947661505, 0.28951993127842596, 0.2856948112423333, 0.2767460983506753, 0.27082734597510527, 0.2627109003650179, 0.24857694790639506, 0.2131315179445148, 0.207748236822618]</t>
+        </is>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -522,23 +532,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.11|x3: 0.13|x4: 0.09|x5: 0.10|x6: 0.11|x7: 0.16|x8: 0.12|x9: 0.12|x10: 0.10|x11: 0.20|x12: 0.09|x13: 0.08|x14: 0.05|x15: 0.11|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.20|x9: 0.23|x10: 0.22|x11: 0.20|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[0.00, 0.05, 0.23]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.20255604385691406]</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+          <t>[9, 10, 11, 8]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[0.2310632292434957, 0.2198134640249101, 0.20255604385691406, 0.20048373007635747]</t>
+        </is>
       </c>
       <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -558,23 +573,28 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.17|x3: 0.14|x4: 0.09|x5: 0.00|x6: 0.22|x7: 0.09|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.09|x12: 0.11|x13: 0.24|x14: 0.07|x15: 0.14|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.24]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>[13, 6]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[0.2438561113125124, 0.2151386197878804]</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[0.24385612621367414, 0.2151386197878804]</t>
+        </is>
       </c>
       <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -594,23 +614,28 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.23|x2: 0.29|x3: 0.33|x4: 0.34|x5: 0.31|x6: 0.24|x7: 0.23|x8: 0.26|x9: 0.26|x10: 0.23|x11: 0.31|x12: 0.26|x13: 0.24|x14: 0.12|x15: 0.18|x16: 0.40|x17: 0.00</t>
+          <t>x1: 0.36|x2: 0.29|x3: 0.34|x4: 0.34|x5: 0.31|x6: 0.24|x7: 0.23|x8: 0.45|x9: 0.49|x10: 0.50|x11: 0.31|x12: 0.26|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.40|x17: 0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[16, 4, 3, 11, 5, 2, 9, 12, 8, 6, 13, 10, 7, 1]</t>
+          <t>[0.00, 0.28, 0.50]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[0.4034856908477839, 0.33763345987085813, 0.33125982345329913, 0.30535897585570115, 0.30520678021321856, 0.29139921035028493, 0.2566420193376251, 0.2559008976261211, 0.2557910920457451, 0.24331337848005297, 0.24309761237716687, 0.23495117581188496, 0.23356025266703156, 0.2326877409588951]</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
+          <t>[10, 9, 8, 16, 1, 4, 3, 11, 5, 2, 12, 6, 13, 7]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[0.49628625905310464, 0.48684954099152744, 0.4547598920314423, 0.4034856908477839, 0.3627461363901756, 0.33763345987085813, 0.33724916623703666, 0.30535897585570115, 0.30520678021321856, 0.29139921035028493, 0.25590089671389094, 0.24331337848005297, 0.24309758257484337, 0.23356022377693852]</t>
+        </is>
       </c>
       <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -630,23 +655,28 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.30|x3: 0.04|x4: 0.05|x5: 0.00|x6: 0.13|x7: 0.22|x8: 0.13|x9: 0.13|x10: 0.05|x11: 0.14|x12: 0.22|x13: 0.10|x14: 0.13|x15: 0.15|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.30|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.00|x9: 0.33|x10: 0.00|x11: 0.00|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[2, 7, 12]</t>
+          <t>[0.00, 0.06, 0.33]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[0.2951772188655166, 0.22062861367089648, 0.2152442667577924]</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
+          <t>[9, 2, 7, 12]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[0.3284769021517384, 0.2951772188655166, 0.22062861367089648, 0.2152442667577924]</t>
+        </is>
       </c>
       <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -666,12 +696,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.16|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.07|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.08|x13: 0.03|x14: 0.12|x15: 0.19|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -679,10 +709,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -702,23 +737,28 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.29|x3: 0.07|x4: 0.03|x5: 0.00|x6: 0.17|x7: 0.15|x8: 0.05|x9: 0.05|x10: 0.02|x11: 0.04|x12: 0.15|x13: 0.12|x14: 0.12|x15: 0.24|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.24|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.29]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>[2, 15]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[0.29478493111171566, 0.237212136387825]</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
       <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -738,23 +778,28 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.10|x7: 0.05|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.14|x12: 0.00|x13: 0.26|x14: 0.07|x15: 0.11|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.26|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.26]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>[13]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[0.25691656235294613]</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -774,23 +819,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.32|x3: 0.22|x4: 0.16|x5: 0.07|x6: 0.30|x7: 0.26|x8: 0.09|x9: 0.09|x10: 0.08|x11: 0.21|x12: 0.31|x13: 0.41|x14: 0.24|x15: 0.31|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.26|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.21|x12: 0.31|x13: 0.41|x14: 0.24|x15: 0.31|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[13, 2, 12, 15, 6, 7, 14, 3, 11]</t>
+          <t>[0.00, 0.14, 0.41]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[0.4129952048135992, 0.31573363566772095, 0.31087519130524877, 0.3057311177253723, 0.2967222410330759, 0.2620444110098047, 0.23515491932189744, 0.21639839044520298, 0.21176390969027148]</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
+          <t>[13, 2, 12, 15, 6, 7, 14, 11]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[0.4129952048135992, 0.31573363566772095, 0.31087519130524877, 0.3057311177253723, 0.2967222410330759, 0.2620444110098047, 0.23515491932189744, 0.21176390969027148]</t>
+        </is>
       </c>
       <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -810,23 +860,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.18|x2: 0.47|x3: 0.29|x4: 0.23|x5: 0.19|x6: 0.31|x7: 0.27|x8: 0.11|x9: 0.11|x10: 0.18|x11: 0.35|x12: 0.26|x13: 0.32|x14: 0.20|x15: 0.39|x16: 0.28|x17: 0.00</t>
+          <t>x1: 0.33|x2: 0.47|x3: 0.30|x4: 0.23|x5: 0.00|x6: 0.31|x7: 0.27|x8: 0.22|x9: 0.00|x10: 0.31|x11: 0.35|x12: 0.26|x13: 0.32|x14: 0.20|x15: 0.39|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[2, 15, 11, 13, 6, 3, 16, 7, 12, 4, 14]</t>
+          <t>[0.00, 0.25, 0.47]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[0.4650487033878914, 0.3893924057483673, 0.34967159096197253, 0.31953106520813157, 0.31171188571297803, 0.29442110763490514, 0.2752243316295935, 0.2724678987984792, 0.26490784670917056, 0.23342129084302066, 0.20081800858286403]</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
+          <t>[2, 15, 11, 1, 13, 6, 10, 3, 16, 7, 12, 4, 8, 14]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[0.4650487033878914, 0.3893924057483673, 0.34967159096197253, 0.33378023417989633, 0.31953109501045507, 0.31171188571297803, 0.3061939581305375, 0.3016424852795917, 0.2752243316295935, 0.2724678987984792, 0.26490784670917056, 0.23342129084302066, 0.21827122240393382, 0.20081800858286403]</t>
+        </is>
       </c>
       <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -846,23 +901,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.31|x3: 0.24|x4: 0.21|x5: 0.12|x6: 0.26|x7: 0.15|x8: 0.09|x9: 0.09|x10: 0.10|x11: 0.26|x12: 0.22|x13: 0.19|x14: 0.15|x15: 0.40|x16: 0.18|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.31|x3: 0.03|x4: 0.21|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.26|x12: 0.22|x13: 0.00|x14: 0.00|x15: 0.40|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[15, 2, 11, 6, 3, 12, 4]</t>
+          <t>[0.00, 0.11, 0.40]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[0.4043561816215515, 0.3106230662746867, 0.2640889642134465, 0.2620693811568827, 0.23974304092158824, 0.22130864849653736, 0.20945135734141562]</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
+          <t>[15, 2, 11, 6, 12, 4]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[0.4043561816215515, 0.3106230662746867, 0.2640889642134465, 0.2620693811568827, 0.2165721715156213, 0.20945135734141562]</t>
+        </is>
       </c>
       <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -882,23 +942,28 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.17|x2: 0.46|x3: 0.16|x4: 0.18|x5: 0.14|x6: 0.27|x7: 0.28|x8: 0.18|x9: 0.18|x10: 0.17|x11: 0.20|x12: 0.39|x13: 0.27|x14: 0.24|x15: 0.31|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.46|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.28|x8: 0.31|x9: 0.34|x10: 0.40|x11: 0.20|x12: 0.39|x13: 0.27|x14: 0.24|x15: 0.31|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[2, 12, 15, 7, 6, 13, 14, 11]</t>
+          <t>[0.00, 0.22, 0.46]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[0.4612857963707917, 0.3892653037235646, 0.3090951442718506, 0.27722104135589826, 0.27291310545202974, 0.2728228968688431, 0.238282062207898, 0.20424768253155778]</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+          <t>[2, 10, 12, 9, 8, 15, 7, 6, 13, 14, 1, 11]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[0.4612857963707917, 0.3971116538040047, 0.38926533352588577, 0.34484004588976447, 0.31255097070385596, 0.3090951442718506, 0.27722104135589826, 0.27291310545202974, 0.2728229266711666, 0.238282062207898, 0.22906672736105227, 0.20424768253155778]</t>
+        </is>
       </c>
       <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -918,23 +983,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.32|x3: 0.24|x4: 0.06|x5: 0.04|x6: 0.16|x7: 0.12|x8: 0.04|x9: 0.03|x10: 0.06|x11: 0.07|x12: 0.08|x13: 0.11|x14: 0.11|x15: 0.25|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.32|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.25|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.32]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>[2, 15, 3]</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[0.31689937767080956, 0.25294792652130127, 0.2395881596285443]</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[0.31689937767080956, 0.25294792652130127, 0.2323157914621331]</t>
+        </is>
       </c>
       <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -954,12 +1024,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.01|x3: 0.10|x4: 0.03|x5: 0.11|x6: 0.08|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.03|x11: 0.14|x12: 0.05|x13: 0.04|x14: 0.05|x15: 0.08|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -967,10 +1037,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>0</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -990,23 +1065,28 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.14|x3: 0.32|x4: 0.12|x5: 0.20|x6: 0.08|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.07|x11: 0.09|x12: 0.05|x13: 0.03|x14: 0.10|x15: 0.04|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.20|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.30]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>[3, 5]</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[0.3174839113555798, 0.20407444542757336]</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[0.30301455714487646, 0.20407444542757336]</t>
+        </is>
       </c>
       <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1026,12 +1106,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.05|x3: 0.16|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.05|x15: 0.06|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1039,10 +1119,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1062,23 +1147,28 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.19|x3: 0.34|x4: 0.10|x5: 0.00|x6: 0.24|x7: 0.22|x8: 0.06|x9: 0.06|x10: 0.02|x11: 0.04|x12: 0.24|x13: 0.12|x14: 0.21|x15: 0.11|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.21|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>[0.00, 0.07, 0.31]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>[3, 12, 6, 7, 14]</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[0.33623819287663914, 0.24144478680733428, 0.23667659482634112, 0.22111714514420422, 0.20584022160486068]</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[0.3117349429851936, 0.24144478726344937, 0.23667659482634112, 0.22111715958925074, 0.20584022160486068]</t>
+        </is>
       </c>
       <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1098,12 +1188,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1111,10 +1201,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>0</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1134,23 +1229,28 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.08|x3: 0.10|x4: 0.05|x5: 0.02|x6: 0.30|x7: 0.29|x8: 0.07|x9: 0.07|x10: 0.02|x11: 0.30|x12: 0.35|x13: 0.25|x14: 0.27|x15: 0.21|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.29|x8: 0.00|x9: 0.22|x10: 0.00|x11: 0.30|x12: 0.35|x13: 0.25|x14: 0.27|x15: 0.21|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[12, 11, 6, 7, 14, 13, 15]</t>
+          <t>[0.00, 0.13, 0.35]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[0.3494352421784648, 0.2985425179842238, 0.29793120207458124, 0.28719248585877466, 0.2660955274917629, 0.25253681289169205, 0.2096654772758484]</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>[12, 11, 6, 7, 14, 13, 9, 15]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[0.34943527198078594, 0.2985425179842238, 0.29793120207458124, 0.28719248585877466, 0.2660955274917629, 0.25253684269401555, 0.21698239203189618, 0.2096654772758484]</t>
+        </is>
       </c>
       <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1170,12 +1270,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.15|x4: 0.01|x5: 0.08|x6: 0.04|x7: 0.00|x8: 0.01|x9: 0.01|x10: 0.01|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1183,10 +1283,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>0</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1206,12 +1311,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.08|x4: 0.03|x5: 0.00|x6: 0.01|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.07|x14: 0.05|x15: 0.02|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1219,10 +1324,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1242,12 +1352,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.02|x5: 0.04|x6: 0.00|x7: 0.04|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1255,10 +1365,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1393,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.01|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.14|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.03|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1291,10 +1406,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G24" t="b">
-        <v>0</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1314,12 +1434,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.12|x4: 0.07|x5: 0.06|x6: 0.06|x7: 0.05|x8: 0.04|x9: 0.04|x10: 0.04|x11: 0.03|x12: 0.08|x13: 0.09|x14: 0.04|x15: 0.04|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1327,10 +1447,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1350,24 +1475,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.08|x3: 0.24|x4: 0.04|x5: 0.03|x6: 0.26|x7: 0.21|x8: 0.07|x9: 0.07|x10: 0.01|x11: 0.12|x12: 0.24|x13: 0.08|x14: 0.18|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.21|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[6, 3, 12, 7]</t>
+          <t>[0.00, 0.04, 0.26]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[0.26092121685463365, 0.2386027110398564, 0.23547342520137865, 0.20792506195931282]</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>[6, 12, 7]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[0.26092121685463365, 0.23547340984410298, 0.2079250475142663]</t>
+        </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1386,23 +1516,28 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.14|x3: 0.17|x4: 0.03|x5: 0.00|x6: 0.24|x7: 0.22|x8: 0.06|x9: 0.06|x10: 0.01|x11: 0.17|x12: 0.29|x13: 0.10|x14: 0.16|x15: 0.16|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.29|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.29]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>[12, 6, 7]</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[0.2879980090550006, 0.2431935433386071, 0.2206622128491021]</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[0.2879980099672308, 0.2431935433386071, 0.22066224173919513]</t>
+        </is>
       </c>
       <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1422,23 +1557,28 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.01|x3: 0.22|x4: 0.03|x5: 0.08|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.04|x12: 0.00|x13: 0.01|x14: 0.04|x15: 0.00|x16: 0.01|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.22|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.22]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>[0.21925743096070702]</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[0.2160605565162892]</t>
+        </is>
       </c>
       <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1458,23 +1598,28 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.25|x3: 0.44|x4: 0.14|x5: 0.22|x6: 0.17|x7: 0.09|x8: 0.08|x9: 0.07|x10: 0.11|x11: 0.14|x12: 0.10|x13: 0.10|x14: 0.08|x15: 0.20|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.20|x2: 0.25|x3: 0.43|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.20|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[3, 2, 5, 15]</t>
+          <t>[0.00, 0.08, 0.43]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[0.4434558890223543, 0.24611842179438348, 0.2188068958939149, 0.20079942047595978]</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
+          <t>[3, 2, 5, 1, 15]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[0.43227260660343636, 0.24611842179438348, 0.2188068958939149, 0.2033140607737549, 0.20079942047595978]</t>
+        </is>
       </c>
       <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1494,23 +1639,28 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.10|x3: 0.30|x4: 0.05|x5: 0.11|x6: 0.13|x7: 0.09|x8: 0.07|x9: 0.07|x10: 0.08|x11: 0.25|x12: 0.18|x13: 0.24|x14: 0.10|x15: 0.10|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.30|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.25|x12: 0.00|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.30]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>[3, 11, 13]</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[0.30269659329821297, 0.2517881827007691, 0.24334747505737342]</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[0.29589139019049593, 0.2517881827007691, 0.24334746015621167]</t>
+        </is>
       </c>
       <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1530,23 +1680,28 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.04|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.08|x8: 0.03|x9: 0.03|x10: 0.00|x11: 0.04|x12: 0.15|x13: 0.00|x14: 0.11|x15: 0.05|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.26]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[0.2573823101881002]</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
       <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1566,12 +1721,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.05|x4: 0.00|x5: 0.00|x6: 0.01|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1579,10 +1734,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G32" t="b">
-        <v>0</v>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1602,23 +1762,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.09|x3: 0.20|x4: 0.04|x5: 0.08|x6: 0.15|x7: 0.02|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.06|x12: 0.06|x13: 0.11|x14: 0.03|x15: 0.06|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.24]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[0.24345517475937717]</t>
         </is>
       </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
       <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1638,23 +1803,28 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.08|x3: 0.34|x4: 0.07|x5: 0.11|x6: 0.11|x7: 0.02|x8: 0.04|x9: 0.03|x10: 0.04|x11: 0.11|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.18|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.33|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.33]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>[0.34439949682170823]</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[0.33442453710112124]</t>
+        </is>
       </c>
       <c r="H34" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1674,23 +1844,28 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.20|x3: 0.51|x4: 0.22|x5: 0.25|x6: 0.18|x7: 0.05|x8: 0.07|x9: 0.07|x10: 0.10|x11: 0.19|x12: 0.04|x13: 0.08|x14: 0.05|x15: 0.11|x16: 0.25|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.20|x3: 0.48|x4: 0.22|x5: 0.25|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.25|x17: 0.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[3, 5, 16, 4, 2]</t>
+          <t>[0.00, 0.10, 0.48]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[0.5101738874053261, 0.24716709922503077, 0.2450405540229452, 0.22089787618002177, 0.20279883787573283]</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
+          <t>[3, 5, 16, 1, 4, 2]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[0.4792556595515413, 0.24716709922503077, 0.2450405540229452, 0.22509625318716875, 0.22089787618002177, 0.20279883787573283]</t>
+        </is>
       </c>
       <c r="H35" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1710,23 +1885,28 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.04|x3: 0.22|x4: 0.02|x5: 0.10|x6: 0.11|x7: 0.08|x8: 0.02|x9: 0.02|x10: 0.04|x11: 0.17|x12: 0.11|x13: 0.08|x14: 0.07|x15: 0.07|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.20|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[0.00, 0.02, 0.21]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[0.21622927393278218, 0.20737445624847184]</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
+          <t>[16, 3]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[0.20737445624847184, 0.20499629493440663]</t>
+        </is>
       </c>
       <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1746,12 +1926,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.01|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.01|x13: 0.09|x14: 0.01|x15: 0.01|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1759,10 +1939,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G37" t="b">
-        <v>0</v>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1782,24 +1967,29 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.27|x4: 0.03|x5: 0.10|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.01|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[0.2727468597430901]</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1818,24 +2008,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.20|x4: 0.10|x5: 0.12|x6: 0.15|x7: 0.04|x8: 0.04|x9: 0.03|x10: 0.05|x11: 0.11|x12: 0.06|x13: 0.06|x14: 0.01|x15: 0.00|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[16, 3]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[0.2199642388890491, 0.2015964984762264]</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[0.2199642388890491]</t>
+        </is>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1854,12 +2049,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1867,10 +2062,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1890,23 +2090,28 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.27|x4: 0.00|x5: 0.05|x6: 0.07|x7: 0.02|x8: 0.02|x9: 0.01|x10: 0.01|x11: 0.04|x12: 0.04|x13: 0.05|x14: 0.08|x15: 0.06|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.21]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>[0.2669581168645991]</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[0.2133234515286035]</t>
+        </is>
       </c>
       <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1926,23 +2131,28 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.11|x3: 0.44|x4: 0.04|x5: 0.11|x6: 0.01|x7: 0.03|x8: 0.01|x9: 0.01|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.04|x14: 0.04|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.25]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>[0.4425677414280949]</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[0.2466532724382421]</t>
+        </is>
       </c>
       <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1962,23 +2172,28 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.09|x3: 0.30|x4: 0.04|x5: 0.14|x6: 0.06|x7: 0.00|x8: 0.01|x9: 0.01|x10: 0.03|x11: 0.05|x12: 0.01|x13: 0.00|x14: 0.06|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.27]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>[0.2999735888210051]</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[0.2690918538939871]</t>
+        </is>
       </c>
       <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1998,23 +2213,28 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.44|x4: 0.14|x5: 0.09|x6: 0.09|x7: 0.02|x8: 0.04|x9: 0.04|x10: 0.07|x11: 0.10|x12: 0.01|x13: 0.02|x14: 0.09|x15: 0.02|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.31]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>[0.44149121186439366]</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[0.3058942960524579]</t>
+        </is>
       </c>
       <c r="H44" t="b">
+        <v>1</v>
+      </c>
+      <c r="I44" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2034,12 +2254,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.01|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.06|x14: 0.03|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2047,10 +2267,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G45" t="b">
-        <v>0</v>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2070,12 +2295,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.01|x13: 0.07|x14: 0.01|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2083,10 +2308,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>0</v>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2106,23 +2336,28 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.36|x4: 0.10|x5: 0.07|x6: 0.15|x7: 0.00|x8: 0.04|x9: 0.04|x10: 0.07|x11: 0.16|x12: 0.05|x13: 0.12|x14: 0.02|x15: 0.05|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.35|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.35]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>[0.3621596160574913]</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[0.3485386492526757]</t>
+        </is>
       </c>
       <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2142,12 +2377,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.13|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.06|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.05|x12: 0.05|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2155,10 +2390,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>0</v>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2178,12 +2418,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.06|x3: 0.13|x4: 0.04|x5: 0.07|x6: 0.03|x7: 0.09|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.02|x12: 0.04|x13: 0.05|x14: 0.00|x15: 0.01|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2191,10 +2431,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>0</v>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2214,23 +2459,28 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.03|x6: 0.03|x7: 0.01|x8: 0.04|x9: 0.04|x10: 0.00|x11: 0.00|x12: 0.03|x13: 0.02|x14: 0.03|x15: 0.00|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.26|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.26]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[0.2581166945985629]</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
       <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2250,12 +2500,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.07|x3: 0.07|x4: 0.14|x5: 0.00|x6: 0.05|x7: 0.06|x8: 0.02|x9: 0.02|x10: 0.04|x11: 0.00|x12: 0.06|x13: 0.07|x14: 0.00|x15: 0.00|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2263,10 +2513,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>0</v>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2286,23 +2541,28 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.01|x4: 0.33|x5: 0.07|x6: 0.05|x7: 0.08|x8: 0.08|x9: 0.08|x10: 0.03|x11: 0.00|x12: 0.02|x13: 0.04|x14: 0.01|x15: 0.00|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.33|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.33]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[0.3255994752563627]</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
       <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2322,12 +2582,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.00|x3: 0.01|x4: 0.12|x5: 0.00|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.03|x12: 0.00|x13: 0.01|x14: 0.00|x15: 0.00|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2335,10 +2595,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>0</v>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2358,23 +2623,28 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.07|x4: 0.20|x5: 0.04|x6: 0.16|x7: 0.18|x8: 0.07|x9: 0.07|x10: 0.05|x11: 0.20|x12: 0.27|x13: 0.17|x14: 0.14|x15: 0.11|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.20|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.26|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.26]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
           <t>[12, 4]</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>[0.2660724339714615, 0.2037321711238418]</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>[0.2605429482982585, 0.2037321711238418]</t>
+        </is>
       </c>
       <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2394,23 +2664,28 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.29|x5: 0.09|x6: 0.02|x7: 0.00|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.29|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.29]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[0.28725795033740376]</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
       <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2430,23 +2705,28 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.00|x4: 0.23|x5: 0.04|x6: 0.04|x7: 0.00|x8: 0.03|x9: 0.03|x10: 0.01|x11: 0.00|x12: 0.00|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.23|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.23]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>[4]</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[0.22941205672868747]</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
       <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2466,23 +2746,28 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.14|x3: 0.19|x4: 0.27|x5: 0.29|x6: 0.21|x7: 0.15|x8: 0.19|x9: 0.19|x10: 0.16|x11: 0.15|x12: 0.17|x13: 0.19|x14: 0.08|x15: 0.12|x16: 0.33|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.02|x4: 0.27|x5: 0.29|x6: 0.21|x7: 0.00|x8: 0.35|x9: 0.35|x10: 0.34|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.33|x17: 0.00</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[16, 5, 4, 6]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[0.3251407784893837, 0.29344863136781196, 0.2746745311746963, 0.212668692650947]</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
+          <t>[9, 8, 10, 16, 5, 4, 1, 6]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>[0.34932759013778425, 0.3452467418810371, 0.3421858779050778, 0.3251407784893837, 0.29344863136781196, 0.2746745311746963, 0.24420744116968995, 0.212668692650947]</t>
+        </is>
       </c>
       <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2502,12 +2787,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.04|x3: 0.00|x4: 0.17|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.03|x12: 0.02|x13: 0.07|x14: 0.00|x15: 0.03|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2515,10 +2800,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>0</v>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2538,23 +2828,28 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.01|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.20|x17: 0.00</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.20]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[0.20372367170837835]</t>
         </is>
       </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
       <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2574,23 +2869,28 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.10|x3: 0.13|x4: 0.14|x5: 0.21|x6: 0.08|x7: 0.00|x8: 0.03|x9: 0.03|x10: 0.09|x11: 0.10|x12: 0.01|x13: 0.08|x14: 0.08|x15: 0.09|x16: 0.23|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.23]</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
           <t>[16, 5]</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[0.232711452299692, 0.20652655074784976]</t>
         </is>
       </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
       <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2610,23 +2910,28 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.02|x3: 0.01|x4: 0.05|x5: 0.13|x6: 0.02|x7: 0.00|x8: 0.01|x9: 0.01|x10: 0.03|x11: 0.09|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.06|x16: 0.37|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.37|x17: 0.00</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.37]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[0.36667937518424465]</t>
         </is>
       </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
       <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2646,23 +2951,28 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.09|x4: 0.06|x5: 0.27|x6: 0.07|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.13|x12: 0.01|x13: 0.13|x14: 0.00|x15: 0.05|x16: 0.31|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.27|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.31]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>[16, 5]</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[0.31085896897318355, 0.27359688689704065]</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
       <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2682,23 +2992,28 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.00|x3: 0.00|x4: 0.07|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.05|x9: 0.05|x10: 0.04|x11: 0.01|x12: 0.00|x13: 0.00|x14: 0.02|x15: 0.00|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.22|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.22]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
           <t>[5]</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>[0.2231414947381838]</t>
         </is>
       </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
       <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2718,12 +3033,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.01|x3: 0.00|x4: 0.06|x5: 0.19|x6: 0.00|x7: 0.02|x8: 0.02|x9: 0.02|x10: 0.02|x11: 0.00|x12: 0.00|x13: 0.01|x14: 0.05|x15: 0.02|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2731,10 +3046,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2754,23 +3074,28 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.07|x3: 0.22|x4: 0.20|x5: 0.48|x6: 0.12|x7: 0.09|x8: 0.08|x9: 0.08|x10: 0.07|x11: 0.13|x12: 0.11|x13: 0.12|x14: 0.03|x15: 0.08|x16: 0.42|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.21|x4: 0.20|x5: 0.48|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.42|x17: 0.00</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
+          <t>[0.00, 0.08, 0.48]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
           <t>[5, 16, 3, 4]</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>[0.4760899912728367, 0.4193948561991825, 0.21658483419302085, 0.20480922840848326]</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>1</v>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>[0.4760899912728367, 0.4193948561991825, 0.20570673123551314, 0.20480922840848326]</t>
+        </is>
       </c>
       <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2790,23 +3115,28 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.23|x3: 0.23|x4: 0.28|x5: 0.18|x6: 0.22|x7: 0.19|x8: 0.16|x9: 0.16|x10: 0.14|x11: 0.21|x12: 0.24|x13: 0.24|x14: 0.09|x15: 0.17|x16: 0.31|x17: 0.00</t>
+          <t>x1: 0.22|x2: 0.23|x3: 0.24|x4: 0.28|x5: 0.00|x6: 0.22|x7: 0.00|x8: 0.26|x9: 0.33|x10: 0.30|x11: 0.21|x12: 0.23|x13: 0.24|x14: 0.00|x15: 0.00|x16: 0.31|x17: 0.00</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[16, 4, 13, 12, 3, 2, 6, 11]</t>
+          <t>[0.00, 0.18, 0.33]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[0.30709931654798833, 0.2754118467396083, 0.2422309906121709, 0.2383832028260992, 0.2322310939460926, 0.22545761149637134, 0.21523649061715378, 0.20606577374268964]</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>[9, 16, 10, 4, 8, 13, 3, 12, 2, 1, 6, 11]</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>[0.3339319191806176, 0.30709931654798833, 0.2985959207681263, 0.2754118467396083, 0.25876474369212166, 0.2422309906121709, 0.2361339948137582, 0.2323952967064516, 0.22545761149637134, 0.22458274406890077, 0.21523649061715378, 0.20606577374268964]</t>
+        </is>
       </c>
       <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2826,23 +3156,28 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.19|x2: 0.33|x3: 0.41|x4: 0.34|x5: 0.34|x6: 0.33|x7: 0.21|x8: 0.15|x9: 0.14|x10: 0.19|x11: 0.42|x12: 0.20|x13: 0.26|x14: 0.15|x15: 0.21|x16: 0.33|x17: 0.00</t>
+          <t>x1: 0.35|x2: 0.33|x3: 0.42|x4: 0.34|x5: 0.34|x6: 0.33|x7: 0.21|x8: 0.30|x9: 0.23|x10: 0.33|x11: 0.42|x12: 0.01|x13: 0.26|x14: 0.00|x15: 0.21|x16: 0.33|x17: 0.00</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[11, 3, 4, 5, 16, 2, 6, 13, 7, 15, 12]</t>
+          <t>[0.00, 0.26, 0.42]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[0.4205823342694113, 0.40954124550555654, 0.34452088437899064, 0.34053078801230763, 0.3312753184119746, 0.32753393460147606, 0.325552621032552, 0.2636560299864419, 0.21285080837759981, 0.20515434443950653, 0.20034615587480814]</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
+          <t>[11, 3, 1, 4, 5, 16, 2, 10, 6, 8, 13, 9, 7, 15]</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>[0.4205823342694113, 0.41707361776076624, 0.3507529017254354, 0.34452088437899064, 0.34053078801230763, 0.3312753184119746, 0.32753393460147606, 0.3263334573536836, 0.325552621032552, 0.3009516487299506, 0.2636560299864419, 0.22639778003397082, 0.21285082282264634, 0.20515434443950653]</t>
+        </is>
       </c>
       <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2862,23 +3197,28 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.10|x3: 0.01|x4: 0.01|x5: 0.00|x6: 0.14|x7: 0.07|x8: 0.02|x9: 0.02|x10: 0.04|x11: 0.22|x12: 0.11|x13: 0.17|x14: 0.20|x15: 0.42|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.00|x13: 0.00|x14: 0.20|x15: 0.42|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.42]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
           <t>[15, 11, 14]</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>[0.4155987799167633, 0.2188270785640838, 0.20069224277840558]</t>
         </is>
       </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
       <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2898,23 +3238,28 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.09|x4: 0.04|x5: 0.00|x6: 0.41|x7: 0.09|x8: 0.03|x9: 0.03|x10: 0.05|x11: 0.22|x12: 0.27|x13: 0.27|x14: 0.31|x15: 0.24|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.41|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.22|x12: 0.27|x13: 0.27|x14: 0.31|x15: 0.24|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
+          <t>[0.00, 0.10, 0.41]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
           <t>[6, 14, 13, 12, 15, 11]</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>[0.4071349607778514, 0.31256551540198474, 0.2742527527456262, 0.26857242157092276, 0.23814797401428223, 0.223187382905091]</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>[0.4071349607778514, 0.31256551540198474, 0.2742527527456262, 0.2656017433046576, 0.23814797401428223, 0.223187382905091]</t>
+        </is>
       </c>
       <c r="H69" t="b">
+        <v>1</v>
+      </c>
+      <c r="I69" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2934,23 +3279,28 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.25|x3: 0.15|x4: 0.13|x5: 0.05|x6: 0.47|x7: 0.33|x8: 0.13|x9: 0.13|x10: 0.13|x11: 0.33|x12: 0.46|x13: 0.40|x14: 0.46|x15: 0.53|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.25|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.47|x7: 0.33|x8: 0.00|x9: 0.34|x10: 0.30|x11: 0.33|x12: 0.46|x13: 0.40|x14: 0.46|x15: 0.53|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[15, 6, 12, 14, 13, 7, 11, 2]</t>
+          <t>[0.00, 0.24, 0.53]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[0.5290890336036682, 0.46608240627712294, 0.4638727562099493, 0.4562255288582924, 0.4041302950728789, 0.3297885012785562, 0.3254942341236027, 0.24843538963181366]</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
+          <t>[15, 6, 12, 14, 13, 9, 7, 11, 10, 2]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>[0.5290890336036682, 0.46608240627712294, 0.4638727562099493, 0.4562255288582924, 0.4041302950728789, 0.33891027787055505, 0.3297885012785562, 0.3254942341236027, 0.30406946327046314, 0.24843538963181366]</t>
+        </is>
       </c>
       <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2970,23 +3320,28 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.09|x3: 0.08|x4: 0.07|x5: 0.00|x6: 0.28|x7: 0.18|x8: 0.03|x9: 0.03|x10: 0.03|x11: 0.24|x12: 0.20|x13: 0.28|x14: 0.23|x15: 0.30|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.24|x12: 0.00|x13: 0.28|x14: 0.23|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[15, 13, 6, 11, 14, 12]</t>
+          <t>[0.00, 0.08, 0.30]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[0.30218732357025146, 0.2805841073611415, 0.27951759828859246, 0.2405070854587561, 0.22591596067058148, 0.2044772819998968]</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>1</v>
+          <t>[15, 13, 6, 11, 14]</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>[0.30218732357025146, 0.280584137163465, 0.27951759828859246, 0.2405070854587561, 0.22591596067058148]</t>
+        </is>
       </c>
       <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3006,23 +3361,28 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.11|x8: 0.01|x9: 0.01|x10: 0.00|x11: 0.16|x12: 0.10|x13: 0.11|x14: 0.13|x15: 0.14|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.32|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.32]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>[0.32171950583173514]</t>
         </is>
       </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
       <c r="H72" t="b">
+        <v>1</v>
+      </c>
+      <c r="I72" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3042,12 +3402,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.05|x8: 0.02|x9: 0.02|x10: 0.00|x11: 0.06|x12: 0.06|x13: 0.09|x14: 0.09|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3055,10 +3415,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G73" t="b">
-        <v>0</v>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3078,24 +3443,29 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.12|x3: 0.10|x4: 0.18|x5: 0.03|x6: 0.07|x7: 0.17|x8: 0.18|x9: 0.18|x10: 0.09|x11: 0.12|x12: 0.13|x13: 0.15|x14: 0.05|x15: 0.02|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.28|x9: 0.38|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.04, 0.38]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
+          <t>[9, 8]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>[0.3835220294052135, 0.27671865401934775]</t>
+        </is>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3114,23 +3484,28 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.19|x3: 0.10|x4: 0.16|x5: 0.11|x6: 0.10|x7: 0.22|x8: 0.22|x9: 0.22|x10: 0.13|x11: 0.18|x12: 0.21|x13: 0.14|x14: 0.06|x15: 0.10|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.22|x8: 0.40|x9: 0.40|x10: 0.28|x11: 0.00|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[7, 9, 8, 12]</t>
+          <t>[0.00, 0.09, 0.40]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[0.22293651319844973, 0.22001347814530425, 0.21515737936183632, 0.2075550665694152]</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>1</v>
+          <t>[9, 8, 10, 7, 12]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>[0.4035161688530873, 0.4009229056795005, 0.27995961643793044, 0.22293652764349625, 0.20755506702553028]</t>
+        </is>
       </c>
       <c r="H75" t="b">
+        <v>1</v>
+      </c>
+      <c r="I75" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3150,23 +3525,28 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.11|x3: 0.14|x4: 0.11|x5: 0.15|x6: 0.15|x7: 0.09|x8: 0.05|x9: 0.05|x10: 0.07|x11: 0.16|x12: 0.15|x13: 0.12|x14: 0.10|x15: 0.09|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.21]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>[0.21263787427631226]</t>
         </is>
       </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
       <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3186,24 +3566,29 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.08|x3: 0.16|x4: 0.24|x5: 0.14|x6: 0.11|x7: 0.10|x8: 0.18|x9: 0.18|x10: 0.12|x11: 0.14|x12: 0.08|x13: 0.02|x14: 0.06|x15: 0.00|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.18|x2: 0.00|x3: 0.01|x4: 0.24|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.35|x9: 0.31|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[0.00, 0.07, 0.35]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[0.23795091133899948]</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>[8, 9, 4]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>[0.3459511495926736, 0.31114214311008737, 0.23795091133899948]</t>
+        </is>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3222,12 +3607,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.06|x3: 0.04|x4: 0.10|x5: 0.01|x6: 0.13|x7: 0.09|x8: 0.10|x9: 0.10|x10: 0.06|x11: 0.07|x12: 0.08|x13: 0.06|x14: 0.02|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3235,10 +3620,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>0</v>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3258,23 +3648,28 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.01|x3: 0.04|x4: 0.07|x5: 0.00|x6: 0.21|x7: 0.17|x8: 0.06|x9: 0.06|x10: 0.02|x11: 0.06|x12: 0.07|x13: 0.10|x14: 0.11|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.21|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.21]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
           <t>[6]</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>[0.2069331908543866]</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
       <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3689,29 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.10|x3: 0.09|x4: 0.12|x5: 0.04|x6: 0.12|x7: 0.34|x8: 0.12|x9: 0.12|x10: 0.07|x11: 0.18|x12: 0.20|x13: 0.19|x14: 0.02|x15: 0.04|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.34|x8: 0.00|x9: 0.25|x10: 0.00|x11: 0.00|x12: 0.01|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[0.00, 0.04, 0.34]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[0.34091179379094055, 0.20008160074441328]</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>[7, 9]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>[0.3409118226810336, 0.25315323189102223]</t>
+        </is>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3330,23 +3730,28 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.00|x3: 0.01|x4: 0.08|x5: 0.00|x6: 0.08|x7: 0.14|x8: 0.11|x9: 0.12|x10: 0.02|x11: 0.27|x12: 0.11|x13: 0.06|x14: 0.02|x15: 0.00|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.35|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[0.00, 0.04, 0.35]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[0.2720301133833467]</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>[9, 11]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>[0.3511432966089625, 0.2720301133833467]</t>
+        </is>
       </c>
       <c r="H81" t="b">
+        <v>1</v>
+      </c>
+      <c r="I81" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3366,23 +3771,28 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.22|x3: 0.22|x4: 0.11|x5: 0.06|x6: 0.54|x7: 0.26|x8: 0.08|x9: 0.08|x10: 0.07|x11: 0.38|x12: 0.37|x13: 0.31|x14: 0.34|x15: 0.39|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.22|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.54|x7: 0.26|x8: 0.00|x9: 0.25|x10: 0.03|x11: 0.38|x12: 0.37|x13: 0.31|x14: 0.34|x15: 0.39|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[6, 15, 11, 12, 14, 13, 7, 2, 3]</t>
+          <t>[0.00, 0.19, 0.54]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[0.5392254731602155, 0.39152294397354126, 0.38305184669026104, 0.3682319986748208, 0.3427107144632972, 0.30515308324817836, 0.2558162269720383, 0.22307710615420362, 0.2208487340016813]</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>[6, 15, 11, 12, 14, 13, 7, 9, 2]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>[0.5392254731602155, 0.39152294397354126, 0.38305184669026104, 0.3682319986748208, 0.3427107144632972, 0.30515308324817836, 0.2558162269720383, 0.24654312156278874, 0.22307710615420362]</t>
+        </is>
       </c>
       <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3402,23 +3812,28 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.03|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.12|x7: 0.11|x8: 0.05|x9: 0.05|x10: 0.02|x11: 0.28|x12: 0.17|x13: 0.06|x14: 0.03|x15: 0.04|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.28]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>[0.2848739571177674]</t>
         </is>
       </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
       <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3438,24 +3853,29 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.10|x2: 0.16|x3: 0.15|x4: 0.16|x5: 0.10|x6: 0.09|x7: 0.19|x8: 0.21|x9: 0.22|x10: 0.10|x11: 0.14|x12: 0.19|x13: 0.09|x14: 0.05|x15: 0.08|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.32|x9: 0.47|x10: 0.21|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[0.00, 0.06, 0.47]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[0.21739189816788562, 0.21238876551735567]</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
+          <t>[9, 8, 10]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>[0.4715899772391843, 0.32267368741353075, 0.20987111134574643]</t>
+        </is>
       </c>
       <c r="H84" t="b">
         <v>0</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3474,12 +3894,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.02|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.01|x8: 0.01|x9: 0.01|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3487,10 +3907,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G85" t="b">
-        <v>0</v>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3510,23 +3935,28 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.07|x3: 0.09|x4: 0.11|x5: 0.24|x6: 0.06|x7: 0.03|x8: 0.06|x9: 0.06|x10: 0.07|x11: 0.12|x12: 0.05|x13: 0.03|x14: 0.06|x15: 0.09|x16: 0.23|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.23|x17: 0.00</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.24]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
           <t>[5, 16]</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>[0.2388728892635239, 0.23264847999166574]</t>
         </is>
       </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
       <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3546,23 +3976,28 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.05|x3: 0.06|x4: 0.12|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.09|x9: 0.10|x10: 0.08|x11: 0.03|x12: 0.03|x13: 0.00|x14: 0.04|x15: 0.01|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.23|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[0.00, 0.04, 0.24]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[0.2438557631351912, 0.20630124480297546]</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>[5, 8, 16]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>[0.2438557631351912, 0.23092866589115912, 0.20630124480297546]</t>
+        </is>
       </c>
       <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3582,23 +4017,28 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.00|x3: 0.01|x4: 0.01|x5: 0.00|x6: 0.05|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.01|x11: 0.26|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.02|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.26|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.26]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>[0.2582676772858976]</t>
         </is>
       </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
       <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3618,23 +4058,28 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.09|x3: 0.14|x4: 0.08|x5: 0.07|x6: 0.14|x7: 0.06|x8: 0.04|x9: 0.04|x10: 0.08|x11: 0.21|x12: 0.07|x13: 0.18|x14: 0.00|x15: 0.09|x16: 0.20|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.21|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.21]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>[0.21483920732904105]</t>
         </is>
       </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
       <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3654,23 +4099,28 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.24|x4: 0.06|x5: 0.02|x6: 0.22|x7: 0.25|x8: 0.08|x9: 0.09|x10: 0.03|x11: 0.30|x12: 0.28|x13: 0.11|x14: 0.15|x15: 0.11|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.22|x7: 0.25|x8: 0.00|x9: 0.23|x10: 0.00|x11: 0.30|x12: 0.28|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[11, 12, 7, 3, 6]</t>
+          <t>[0.00, 0.08, 0.30]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[0.3014844678003197, 0.27942522561561145, 0.24773329896109886, 0.23683984528325716, 0.22296728775192415]</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
+          <t>[11, 12, 7, 9, 6]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>[0.3014844678003197, 0.2794251958132903, 0.24773329896109886, 0.2289024267840859, 0.22296728775192415]</t>
+        </is>
       </c>
       <c r="H90" t="b">
+        <v>1</v>
+      </c>
+      <c r="I90" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3690,23 +4140,28 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.11|x3: 0.19|x4: 0.14|x5: 0.14|x6: 0.16|x7: 0.18|x8: 0.11|x9: 0.12|x10: 0.06|x11: 0.41|x12: 0.17|x13: 0.05|x14: 0.00|x15: 0.03|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.27|x10: 0.00|x11: 0.41|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[0.00, 0.04, 0.41]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[0.40872948340296755]</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
+          <t>[11, 9]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>[0.40872948340296755, 0.272699472240737]</t>
+        </is>
       </c>
       <c r="H91" t="b">
+        <v>1</v>
+      </c>
+      <c r="I91" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3726,12 +4181,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.01|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.02|x13: 0.00|x14: 0.03|x15: 0.00|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3739,10 +4194,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3762,23 +4222,28 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.10|x3: 0.07|x4: 0.06|x5: 0.00|x6: 0.12|x7: 0.13|x8: 0.04|x9: 0.05|x10: 0.02|x11: 0.15|x12: 0.07|x13: 0.27|x14: 0.17|x15: 0.08|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.27]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
           <t>[13]</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>[0.26740861935200577]</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>[0.26740867895665277]</t>
+        </is>
       </c>
       <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3798,12 +4263,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.06|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.18|x12: 0.02|x13: 0.00|x14: 0.00|x15: 0.05|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3811,10 +4276,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G94" t="b">
-        <v>0</v>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3834,23 +4304,28 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.16|x3: 0.35|x4: 0.13|x5: 0.16|x6: 0.19|x7: 0.29|x8: 0.16|x9: 0.16|x10: 0.14|x11: 0.39|x12: 0.27|x13: 0.26|x14: 0.15|x15: 0.20|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.24|x2: 0.00|x3: 0.35|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.29|x8: 0.21|x9: 0.39|x10: 0.04|x11: 0.39|x12: 0.27|x13: 0.26|x14: 0.00|x15: 0.20|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[11, 3, 7, 12, 13, 15]</t>
+          <t>[0.00, 0.16, 0.39]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[0.385342834742735, 0.3542915691286812, 0.29014857795882165, 0.27306125130431336, 0.26234222435735965, 0.20166003704071045]</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
+          <t>[9, 11, 3, 7, 12, 13, 1, 8, 15]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>[0.385931427934042, 0.385342834742735, 0.35435734834588595, 0.29014857795882165, 0.27306125130431336, 0.26234225415968315, 0.24062383675499488, 0.20810476712457493, 0.20166003704071045]</t>
+        </is>
       </c>
       <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3870,23 +4345,28 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.11|x3: 0.17|x4: 0.06|x5: 0.03|x6: 0.25|x7: 0.12|x8: 0.04|x9: 0.04|x10: 0.02|x11: 0.13|x12: 0.15|x13: 0.17|x14: 0.38|x15: 0.16|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.38|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.38]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
           <t>[14, 6]</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>[0.3770737767410539, 0.25239018263940227]</t>
         </is>
       </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
       <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3906,23 +4386,28 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.10|x3: 0.05|x4: 0.00|x5: 0.03|x6: 0.07|x7: 0.14|x8: 0.04|x9: 0.04|x10: 0.02|x11: 0.15|x12: 0.06|x13: 0.16|x14: 0.03|x15: 0.21|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.21|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.21]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>[0.2097932994365692]</t>
         </is>
       </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
       <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3942,23 +4427,28 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.00|x3: 0.12|x4: 0.00|x5: 0.04|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.02|x11: 0.20|x12: 0.01|x13: 0.05|x14: 0.00|x15: 0.00|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.20|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.20]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>[11]</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>[0.2034705750132484]</t>
         </is>
       </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
       <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3978,12 +4468,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.03|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.01|x13: 0.08|x14: 0.06|x15: 0.02|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -3991,10 +4481,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G99" t="b">
-        <v>0</v>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4014,12 +4509,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.07|x3: 0.16|x4: 0.10|x5: 0.05|x6: 0.11|x7: 0.06|x8: 0.06|x9: 0.06|x10: 0.05|x11: 0.12|x12: 0.06|x13: 0.09|x14: 0.07|x15: 0.06|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4027,10 +4522,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G100" t="b">
-        <v>0</v>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4050,23 +4550,28 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.21|x3: 0.11|x4: 0.08|x5: 0.09|x6: 0.16|x7: 0.30|x8: 0.18|x9: 0.18|x10: 0.08|x11: 0.20|x12: 0.42|x13: 0.17|x14: 0.16|x15: 0.15|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.21|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.30|x8: 0.21|x9: 0.46|x10: 0.21|x11: 0.20|x12: 0.42|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[12, 7, 2]</t>
+          <t>[0.00, 0.12, 0.46]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[0.4242142308026957, 0.3047096182024172, 0.20529165329363996]</t>
-        </is>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
+          <t>[9, 12, 7, 10, 8, 2]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>[0.45795785868960026, 0.4242142596927867, 0.30470958931232417, 0.2116899917676114, 0.21100655787642725, 0.20529165329363996]</t>
+        </is>
       </c>
       <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4086,23 +4591,28 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.13|x3: 0.10|x4: 0.10|x5: 0.06|x6: 0.21|x7: 0.15|x8: 0.06|x9: 0.06|x10: 0.06|x11: 0.20|x12: 0.14|x13: 0.33|x14: 0.05|x15: 0.15|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.21|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.20|x12: 0.00|x13: 0.33|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.33]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
           <t>[13, 6, 11]</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>[0.32910932336409804, 0.21015066456442555, 0.20315009029219055]</t>
-        </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>[0.32910938296874503, 0.21015066456442555, 0.20315009029219055]</t>
+        </is>
       </c>
       <c r="H102" t="b">
+        <v>1</v>
+      </c>
+      <c r="I102" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4122,12 +4632,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.03|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.15|x7: 0.09|x8: 0.02|x9: 0.02|x10: 0.02|x11: 0.10|x12: 0.10|x13: 0.09|x14: 0.15|x15: 0.09|x16: 0.06|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4135,10 +4645,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G103" t="b">
-        <v>0</v>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4158,23 +4673,28 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.15|x3: 0.10|x4: 0.09|x5: 0.09|x6: 0.30|x7: 0.13|x8: 0.06|x9: 0.06|x10: 0.09|x11: 0.18|x12: 0.25|x13: 0.23|x14: 0.53|x15: 0.29|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.25|x13: 0.23|x14: 0.53|x15: 0.29|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
+          <t>[0.00, 0.09, 0.53]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
           <t>[14, 6, 15, 12, 13]</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>[0.5286629963429098, 0.30016464777720153, 0.28877925872802734, 0.2513653946056027, 0.22724612903766783]</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>1</v>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>[0.5286629963429098, 0.30016464777720153, 0.28877925872802734, 0.24737056076125696, 0.22724612903766783]</t>
+        </is>
       </c>
       <c r="H104" t="b">
+        <v>1</v>
+      </c>
+      <c r="I104" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4194,23 +4714,28 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.22|x3: 0.13|x4: 0.08|x5: 0.09|x6: 0.27|x7: 0.21|x8: 0.06|x9: 0.06|x10: 0.09|x11: 0.15|x12: 0.29|x13: 0.30|x14: 0.65|x15: 0.50|x16: 0.08|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.27|x7: 0.21|x8: 0.00|x9: 0.00|x10: 0.21|x11: 0.00|x12: 0.29|x13: 0.30|x14: 0.65|x15: 0.50|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[14, 15, 13, 12, 6, 2, 7]</t>
+          <t>[0.00, 0.16, 0.65]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[0.6451713051049259, 0.49672654271125793, 0.2974245361024337, 0.2929810888072185, 0.27072323074587645, 0.22333986051511268, 0.20848151404135778]</t>
-        </is>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
+          <t>[14, 15, 13, 12, 6, 2, 7, 10]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>[0.6451713051049259, 0.49672654271125793, 0.2974245659047572, 0.2929810897194487, 0.27072323074587645, 0.22333986051511268, 0.20848154293145083, 0.20638066338020689]</t>
+        </is>
       </c>
       <c r="H105" t="b">
+        <v>1</v>
+      </c>
+      <c r="I105" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4230,23 +4755,28 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.20|x7: 0.09|x8: 0.04|x9: 0.04|x10: 0.01|x11: 0.14|x12: 0.18|x13: 0.13|x14: 0.51|x15: 0.22|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.51|x15: 0.22|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.51]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
           <t>[14, 15]</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>[0.5132166905788397, 0.2211972028017044]</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>1</v>
-      </c>
       <c r="H106" t="b">
+        <v>1</v>
+      </c>
+      <c r="I106" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4266,23 +4796,28 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.17|x3: 0.14|x4: 0.13|x5: 0.05|x6: 0.19|x7: 0.15|x8: 0.08|x9: 0.08|x10: 0.04|x11: 0.24|x12: 0.25|x13: 0.14|x14: 0.32|x15: 0.23|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.24|x12: 0.25|x13: 0.00|x14: 0.32|x15: 0.23|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
+          <t>[0.00, 0.06, 0.32]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
           <t>[14, 12, 11, 15]</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>[0.3214967948672275, 0.2512558987670307, 0.24192279581671916, 0.23252207040786743]</t>
-        </is>
-      </c>
-      <c r="G107" t="b">
-        <v>1</v>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>[0.3214967948672275, 0.24648340526477408, 0.24192279581671916, 0.23252207040786743]</t>
+        </is>
       </c>
       <c r="H107" t="b">
+        <v>1</v>
+      </c>
+      <c r="I107" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4302,23 +4837,28 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.16|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.04|x12: 0.02|x13: 0.11|x14: 0.34|x15: 0.14|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.34|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.34]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
           <t>[14]</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>[0.3373774098892059]</t>
         </is>
       </c>
-      <c r="G108" t="b">
-        <v>1</v>
-      </c>
       <c r="H108" t="b">
+        <v>1</v>
+      </c>
+      <c r="I108" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4338,23 +4878,28 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.18|x3: 0.13|x4: 0.11|x5: 0.04|x6: 0.30|x7: 0.26|x8: 0.11|x9: 0.11|x10: 0.08|x11: 0.29|x12: 0.43|x13: 0.34|x14: 0.57|x15: 0.42|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.30|x7: 0.26|x8: 0.00|x9: 0.27|x10: 0.00|x11: 0.29|x12: 0.43|x13: 0.34|x14: 0.57|x15: 0.42|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[14, 12, 15, 13, 6, 11, 7]</t>
+          <t>[0.00, 0.17, 0.57]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[0.5690297068534507, 0.42732198939268295, 0.4201257824897766, 0.3364630168848859, 0.30305147961288803, 0.29071674798867475, 0.26038923979935247]</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>1</v>
+          <t>[14, 12, 15, 13, 6, 11, 9, 7]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>[0.5690297068534507, 0.42732198939268295, 0.4201257824897766, 0.3364629572802389, 0.30305147961288803, 0.29071674798867475, 0.2659290999256547, 0.26038923979935247]</t>
+        </is>
       </c>
       <c r="H109" t="b">
+        <v>1</v>
+      </c>
+      <c r="I109" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4374,23 +4919,28 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.27|x3: 0.18|x4: 0.21|x5: 0.20|x6: 0.35|x7: 0.25|x8: 0.11|x9: 0.11|x10: 0.12|x11: 0.32|x12: 0.38|x13: 0.37|x14: 0.49|x15: 0.50|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.27|x3: 0.03|x4: 0.21|x5: 0.20|x6: 0.35|x7: 0.25|x8: 0.00|x9: 0.22|x10: 0.27|x11: 0.32|x12: 0.38|x13: 0.37|x14: 0.49|x15: 0.50|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[15, 14, 12, 13, 6, 11, 2, 7, 4, 16, 5]</t>
+          <t>[0.00, 0.25, 0.50]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[0.5011416673660278, 0.4879685198803704, 0.3761763959926674, 0.36564786604225086, 0.3506858738318125, 0.3160022006909191, 0.26513483698475504, 0.2509458195269696, 0.21353364487919535, 0.21294239441044022, 0.20050625801840805]</t>
-        </is>
-      </c>
-      <c r="G110" t="b">
-        <v>1</v>
+          <t>[15, 14, 12, 13, 6, 11, 10, 2, 7, 9, 4, 16, 5]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>[0.5011416673660278, 0.4879685198803704, 0.3761763959926674, 0.36564789584457436, 0.3506858738318125, 0.3160022006909191, 0.2738494626261299, 0.26513483698475504, 0.2509458195269696, 0.22117501250086335, 0.21353364487919535, 0.21294239441044022, 0.20050625801840805]</t>
+        </is>
       </c>
       <c r="H110" t="b">
+        <v>1</v>
+      </c>
+      <c r="I110" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4410,23 +4960,28 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.19|x3: 0.18|x4: 0.05|x5: 0.05|x6: 0.18|x7: 0.10|x8: 0.03|x9: 0.03|x10: 0.04|x11: 0.12|x12: 0.15|x13: 0.12|x14: 0.22|x15: 0.50|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.22|x15: 0.50|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.50]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>[15, 14]</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>[0.5026665329933167, 0.2190881142849062]</t>
         </is>
       </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
       <c r="H111" t="b">
+        <v>1</v>
+      </c>
+      <c r="I111" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4446,23 +5001,28 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.27|x3: 0.29|x4: 0.22|x5: 0.16|x6: 0.33|x7: 0.25|x8: 0.09|x9: 0.09|x10: 0.14|x11: 0.38|x12: 0.32|x13: 0.39|x14: 0.31|x15: 0.49|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.28|x2: 0.27|x3: 0.30|x4: 0.22|x5: 0.00|x6: 0.33|x7: 0.25|x8: 0.00|x9: 0.00|x10: 0.04|x11: 0.38|x12: 0.32|x13: 0.39|x14: 0.31|x15: 0.49|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[15, 13, 11, 6, 12, 14, 3, 2, 7, 4]</t>
+          <t>[0.00, 0.21, 0.49]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[0.4867839217185974, 0.3856993163265028, 0.3816961048699925, 0.33095789818728427, 0.324033448678118, 0.30621598140461653, 0.2925379000080301, 0.27082959437044973, 0.25023506545799756, 0.2170976596967673]</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
+          <t>[15, 13, 11, 6, 12, 14, 3, 1, 2, 7, 4]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>[0.4867839217185974, 0.3856993163265028, 0.3816961048699925, 0.33095789818728427, 0.32403344685365765, 0.30621598140461653, 0.2990954909926988, 0.2753837803273722, 0.27082959437044973, 0.2502350076778115, 0.2170976596967673]</t>
+        </is>
       </c>
       <c r="H112" t="b">
+        <v>1</v>
+      </c>
+      <c r="I112" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4482,23 +5042,28 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.13|x3: 0.08|x4: 0.06|x5: 0.01|x6: 0.13|x7: 0.12|x8: 0.04|x9: 0.04|x10: 0.05|x11: 0.10|x12: 0.13|x13: 0.21|x14: 0.29|x15: 0.34|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.21|x14: 0.29|x15: 0.34|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.34]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
           <t>[15, 14, 13]</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>[0.3415745496749878, 0.2851428777862876, 0.20540050437303248]</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>[0.3415745496749878, 0.2851428777862876, 0.20540045966954723]</t>
+        </is>
       </c>
       <c r="H113" t="b">
+        <v>1</v>
+      </c>
+      <c r="I113" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4518,23 +5083,28 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.15|x3: 0.07|x4: 0.04|x5: 0.01|x6: 0.26|x7: 0.17|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.31|x12: 0.29|x13: 0.20|x14: 0.38|x15: 0.44|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.26|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.31|x12: 0.28|x13: 0.20|x14: 0.38|x15: 0.44|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
+          <t>[0.00, 0.11, 0.44]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
           <t>[15, 14, 11, 12, 6, 13]</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>[0.43619123101234436, 0.38416419649644035, 0.3139353386567909, 0.28873139208544857, 0.2640359172532386, 0.20389375850162472]</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>[0.43619123101234436, 0.38416419649644035, 0.3139353386567909, 0.28343330652353727, 0.2640359172532386, 0.20389375850162472]</t>
+        </is>
       </c>
       <c r="H114" t="b">
+        <v>1</v>
+      </c>
+      <c r="I114" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4554,23 +5124,28 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.20|x3: 0.15|x4: 0.13|x5: 0.08|x6: 0.13|x7: 0.14|x8: 0.07|x9: 0.07|x10: 0.07|x11: 0.26|x12: 0.21|x13: 0.21|x14: 0.15|x15: 0.39|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.20|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.26|x12: 0.21|x13: 0.21|x14: 0.00|x15: 0.39|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
+          <t>[0.00, 0.07, 0.39]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
           <t>[15, 11, 13, 12]</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>[0.3876652121543884, 0.2553071452578779, 0.21005130596650012, 0.2096826111417877]</t>
-        </is>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>[0.3876652121543884, 0.2553071452578779, 0.21005124636185313, 0.20540899686701947]</t>
+        </is>
       </c>
       <c r="H115" t="b">
+        <v>1</v>
+      </c>
+      <c r="I115" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4590,23 +5165,28 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.19|x3: 0.12|x4: 0.18|x5: 0.06|x6: 0.13|x7: 0.17|x8: 0.07|x9: 0.07|x10: 0.08|x11: 0.16|x12: 0.20|x13: 0.27|x14: 0.19|x15: 0.46|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.00|x15: 0.46|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[15, 13, 12]</t>
+          <t>[0.00, 0.04, 0.46]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[0.45835569500923157, 0.2674324314084806, 0.20040730878304036]</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
+          <t>[15, 13]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>[0.45835569500923157, 0.2674324314084806]</t>
+        </is>
       </c>
       <c r="H116" t="b">
+        <v>1</v>
+      </c>
+      <c r="I116" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4626,23 +5206,28 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.14|x3: 0.08|x4: 0.03|x5: 0.05|x6: 0.24|x7: 0.15|x8: 0.04|x9: 0.04|x10: 0.06|x11: 0.29|x12: 0.27|x13: 0.29|x14: 0.44|x15: 0.48|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.29|x12: 0.26|x13: 0.29|x14: 0.44|x15: 0.48|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
+          <t>[0.00, 0.12, 0.48]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
           <t>[15, 14, 13, 11, 12, 6]</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>[0.476790189743042, 0.4390131672159277, 0.2937692513230905, 0.2904011133417983, 0.2683104066152783, 0.23749319338221964]</t>
-        </is>
-      </c>
-      <c r="G117" t="b">
-        <v>1</v>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>[0.476790189743042, 0.4390131672159277, 0.2937692513230905, 0.2904011133417983, 0.26369814984247175, 0.23749319338221964]</t>
+        </is>
       </c>
       <c r="H117" t="b">
+        <v>1</v>
+      </c>
+      <c r="I117" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4662,23 +5247,28 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.29|x3: 0.21|x4: 0.11|x5: 0.10|x6: 0.28|x7: 0.26|x8: 0.06|x9: 0.06|x10: 0.09|x11: 0.26|x12: 0.37|x13: 0.33|x14: 0.33|x15: 0.49|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.29|x3: 0.02|x4: 0.00|x5: 0.00|x6: 0.28|x7: 0.26|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.26|x12: 0.37|x13: 0.33|x14: 0.33|x15: 0.49|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[15, 12, 13, 14, 2, 6, 11, 7, 3]</t>
+          <t>[0.00, 0.15, 0.49]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[0.48693764209747314, 0.37323662707662486, 0.3277744772946263, 0.3258469803992631, 0.2891459263499385, 0.2826491071974624, 0.25865813747481337, 0.25539760952388757, 0.2115355094012209]</t>
-        </is>
-      </c>
-      <c r="G118" t="b">
-        <v>1</v>
+          <t>[15, 12, 13, 14, 2, 6, 11, 7]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>[0.48693764209747314, 0.3732366261643947, 0.3277744176899793, 0.3258469803992631, 0.2891459263499385, 0.2826491071974624, 0.25865813747481337, 0.25539758063379453]</t>
+        </is>
       </c>
       <c r="H118" t="b">
+        <v>1</v>
+      </c>
+      <c r="I118" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4698,23 +5288,28 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.08|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.05|x7: 0.04|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.02|x13: 0.11|x14: 0.08|x15: 0.30|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.30|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.30]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>[15]</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>[0.3012000024318695]</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
       <c r="H119" t="b">
+        <v>1</v>
+      </c>
+      <c r="I119" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4734,23 +5329,28 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.22|x3: 0.13|x4: 0.06|x5: 0.17|x6: 0.14|x7: 0.09|x8: 0.04|x9: 0.03|x10: 0.06|x11: 0.14|x12: 0.13|x13: 0.08|x14: 0.15|x15: 0.41|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.22|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.41|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.41]</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
           <t>[15, 16, 2]</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>[0.4130311608314514, 0.22277885965900868, 0.2158454201359472]</t>
         </is>
       </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
       <c r="H120" t="b">
+        <v>1</v>
+      </c>
+      <c r="I120" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4770,12 +5370,12 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.06|x6: 0.08|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.06|x13: 0.01|x14: 0.00|x15: 0.03|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4783,10 +5383,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>0</v>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4806,12 +5411,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.06|x4: 0.00|x5: 0.06|x6: 0.11|x7: 0.06|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.08|x12: 0.06|x13: 0.05|x14: 0.03|x15: 0.08|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4819,10 +5424,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G122" t="b">
-        <v>0</v>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H122" t="b">
+        <v>0</v>
+      </c>
+      <c r="I122" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4842,12 +5452,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.03|x4: 0.09|x5: 0.07|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.02|x12: 0.00|x13: 0.03|x14: 0.00|x15: 0.00|x16: 0.15|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4855,10 +5465,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G123" t="b">
-        <v>0</v>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H123" t="b">
+        <v>0</v>
+      </c>
+      <c r="I123" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4878,12 +5493,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.10|x3: 0.10|x4: 0.08|x5: 0.16|x6: 0.13|x7: 0.10|x8: 0.06|x9: 0.06|x10: 0.09|x11: 0.18|x12: 0.09|x13: 0.04|x14: 0.03|x15: 0.05|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.17|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.01, 0.17]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -4891,10 +5506,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G124" t="b">
-        <v>0</v>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H124" t="b">
+        <v>0</v>
+      </c>
+      <c r="I124" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4914,12 +5534,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.03|x3: 0.04|x4: 0.00|x5: 0.00|x6: 0.04|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.01|x14: 0.04|x15: 0.09|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4927,10 +5547,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G125" t="b">
-        <v>0</v>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H125" t="b">
+        <v>0</v>
+      </c>
+      <c r="I125" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4950,12 +5575,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.06|x6: 0.02|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.05|x12: 0.04|x13: 0.00|x14: 0.08|x15: 0.07|x16: 0.16|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4963,10 +5588,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G126" t="b">
-        <v>0</v>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H126" t="b">
+        <v>0</v>
+      </c>
+      <c r="I126" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4986,23 +5616,28 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.11|x3: 0.26|x4: 0.16|x5: 0.15|x6: 0.19|x7: 0.14|x8: 0.12|x9: 0.12|x10: 0.08|x11: 0.31|x12: 0.19|x13: 0.23|x14: 0.08|x15: 0.12|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.26|x10: 0.00|x11: 0.31|x12: 0.00|x13: 0.23|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[11, 3, 13]</t>
+          <t>[0.00, 0.06, 0.31]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[0.3104289687621651, 0.2550722146532529, 0.23438226559692088]</t>
-        </is>
-      </c>
-      <c r="G127" t="b">
-        <v>1</v>
+          <t>[11, 9, 3, 13]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>[0.3104289687621651, 0.26446798148228245, 0.2464323794696583, 0.23438226559692088]</t>
+        </is>
       </c>
       <c r="H127" t="b">
+        <v>1</v>
+      </c>
+      <c r="I127" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5022,23 +5657,28 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.25|x3: 0.47|x4: 0.21|x5: 0.29|x6: 0.21|x7: 0.19|x8: 0.15|x9: 0.15|x10: 0.12|x11: 0.26|x12: 0.21|x13: 0.17|x14: 0.09|x15: 0.19|x16: 0.36|x17: 0.00</t>
+          <t>x1: 0.22|x2: 0.25|x3: 0.48|x4: 0.21|x5: 0.29|x6: 0.21|x7: 0.00|x8: 0.27|x9: 0.27|x10: 0.03|x11: 0.26|x12: 0.20|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.36|x17: 0.00</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[3, 16, 5, 11, 2, 4, 6, 12]</t>
+          <t>[0.00, 0.18, 0.48]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[0.4709882610093818, 0.35879838934464137, 0.2947924181042971, 0.2551623442479807, 0.25307157882480613, 0.21324034499828137, 0.20956077228086206, 0.20745769380328372]</t>
-        </is>
-      </c>
-      <c r="G128" t="b">
-        <v>1</v>
+          <t>[3, 16, 5, 8, 9, 11, 2, 1, 4, 6, 12]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>[0.4758112820189755, 0.35879838934464137, 0.2947924181042971, 0.274076695143017, 0.2688617676251184, 0.2551623442479807, 0.25307157882480613, 0.2209551535669927, 0.21324034499828137, 0.20956077228086206, 0.20155762800151855]</t>
+        </is>
       </c>
       <c r="H128" t="b">
+        <v>1</v>
+      </c>
+      <c r="I128" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5058,24 +5698,29 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.00|x3: 0.28|x4: 0.02|x5: 0.05|x6: 0.02|x7: 0.00|x8: 0.01|x9: 0.01|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[0.28222448265570216]</t>
-        </is>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H129" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I129" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5094,23 +5739,28 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.19|x3: 0.46|x4: 0.15|x5: 0.21|x6: 0.22|x7: 0.19|x8: 0.09|x9: 0.09|x10: 0.09|x11: 0.32|x12: 0.20|x13: 0.21|x14: 0.09|x15: 0.11|x16: 0.34|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.46|x4: 0.00|x5: 0.21|x6: 0.22|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.32|x12: 0.00|x13: 0.21|x14: 0.00|x15: 0.00|x16: 0.34|x17: 0.00</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[3, 16, 11, 6, 5, 13, 12]</t>
+          <t>[0.00, 0.12, 0.46]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[0.45769228054404887, 0.33699128471117273, 0.3230537995082505, 0.21724735766921738, 0.21264085490466433, 0.2093537974861931, 0.2002607379073792]</t>
-        </is>
-      </c>
-      <c r="G130" t="b">
-        <v>1</v>
+          <t>[3, 16, 11, 6, 5, 13]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>[0.4570140501394575, 0.33699128471117273, 0.3230537995082505, 0.21724735766921738, 0.21264085490466433, 0.2093538272885166]</t>
+        </is>
       </c>
       <c r="H130" t="b">
+        <v>1</v>
+      </c>
+      <c r="I130" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5130,23 +5780,28 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.14|x3: 0.33|x4: 0.09|x5: 0.06|x6: 0.13|x7: 0.00|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.00|x12: 0.04|x13: 0.06|x14: 0.03|x15: 0.19|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.25]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>[0.3345836588175163]</t>
-        </is>
-      </c>
-      <c r="G131" t="b">
-        <v>1</v>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>[0.24958448977863595]</t>
+        </is>
       </c>
       <c r="H131" t="b">
+        <v>1</v>
+      </c>
+      <c r="I131" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5166,23 +5821,28 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.11|x2: 0.24|x3: 0.51|x4: 0.19|x5: 0.26|x6: 0.12|x7: 0.08|x8: 0.08|x9: 0.08|x10: 0.11|x11: 0.17|x12: 0.10|x13: 0.11|x14: 0.07|x15: 0.07|x16: 0.19|x17: 0.00</t>
+          <t>x1: 0.21|x2: 0.24|x3: 0.40|x4: 0.00|x5: 0.26|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.03|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[3, 5, 2]</t>
+          <t>[0.00, 0.07, 0.40]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[0.5054076978341502, 0.26175830158231106, 0.23739476044033037]</t>
-        </is>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
+          <t>[3, 5, 2, 1]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>[0.396869410939341, 0.26175830158231106, 0.23739476044033037, 0.2098071048884984]</t>
+        </is>
       </c>
       <c r="H132" t="b">
+        <v>1</v>
+      </c>
+      <c r="I132" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5202,23 +5862,28 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.04|x2: 0.09|x3: 0.31|x4: 0.00|x5: 0.03|x6: 0.11|x7: 0.07|x8: 0.02|x9: 0.02|x10: 0.04|x11: 0.09|x12: 0.05|x13: 0.13|x14: 0.12|x15: 0.12|x16: 0.05|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.23|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.23]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>[0.3092074959596959]</t>
-        </is>
-      </c>
-      <c r="G133" t="b">
-        <v>1</v>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>[0.23186276167341283]</t>
+        </is>
       </c>
       <c r="H133" t="b">
+        <v>1</v>
+      </c>
+      <c r="I133" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5238,23 +5903,28 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.09|x3: 0.30|x4: 0.09|x5: 0.02|x6: 0.11|x7: 0.01|x8: 0.05|x9: 0.04|x10: 0.05|x11: 0.09|x12: 0.03|x13: 0.00|x14: 0.04|x15: 0.00|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.25|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
+          <t>[0.00, 0.02, 0.25]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
           <t>[3]</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>[0.2952826347772684]</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>[0.2544985799864603]</t>
+        </is>
       </c>
       <c r="H134" t="b">
+        <v>1</v>
+      </c>
+      <c r="I134" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5274,23 +5944,28 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.06|x2: 0.05|x3: 0.19|x4: 0.04|x5: 0.17|x6: 0.09|x7: 0.04|x8: 0.05|x9: 0.05|x10: 0.06|x11: 0.10|x12: 0.06|x13: 0.10|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
+          <t>[0.00, 0.01, 0.21]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>[0.20803877982547775]</t>
         </is>
       </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
       <c r="H135" t="b">
+        <v>0</v>
+      </c>
+      <c r="I135" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5310,12 +5985,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.08|x3: 0.12|x4: 0.02|x5: 0.03|x6: 0.06|x7: 0.08|x8: 0.06|x9: 0.06|x10: 0.03|x11: 0.19|x12: 0.10|x13: 0.11|x14: 0.02|x15: 0.05|x16: 0.03|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5323,10 +5998,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G136" t="b">
-        <v>0</v>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H136" t="b">
+        <v>0</v>
+      </c>
+      <c r="I136" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5346,23 +6026,28 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.24|x3: 0.35|x4: 0.44|x5: 0.54|x6: 0.24|x7: 0.22|x8: 0.25|x9: 0.25|x10: 0.21|x11: 0.26|x12: 0.21|x13: 0.20|x14: 0.07|x15: 0.15|x16: 0.41|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.24|x3: 0.36|x4: 0.44|x5: 0.54|x6: 0.24|x7: 0.22|x8: 0.52|x9: 0.39|x10: 0.40|x11: 0.26|x12: 0.21|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.41|x17: 0.00</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[5, 4, 16, 3, 11, 9, 8, 2, 6, 7, 12, 10, 1]</t>
+          <t>[0.00, 0.27, 0.54]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[0.543345042218939, 0.4448055475347594, 0.407537882873351, 0.35428893592514044, 0.2576182348226217, 0.24745337835566739, 0.24629008776681754, 0.23851970498528718, 0.23550175744485952, 0.21635318324694167, 0.211627639901578, 0.2076869745157398, 0.20518046523739092]</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
+          <t>[5, 8, 4, 16, 10, 9, 3, 1, 11, 2, 6, 7, 12]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>[0.543345042218939, 0.5158513895744827, 0.4448055475347594, 0.407537882873351, 0.40085942749476766, 0.39275645770777246, 0.3604944017039637, 0.3385253879572603, 0.2576182348226217, 0.23851970498528718, 0.23550175744485952, 0.21635322658208123, 0.21162765617108387]</t>
+        </is>
       </c>
       <c r="H137" t="b">
+        <v>1</v>
+      </c>
+      <c r="I137" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5382,23 +6067,28 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.05|x2: 0.12|x3: 0.26|x4: 0.41|x5: 0.07|x6: 0.07|x7: 0.01|x8: 0.05|x9: 0.05|x10: 0.05|x11: 0.00|x12: 0.04|x13: 0.06|x14: 0.05|x15: 0.01|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.41|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[4, 3]</t>
+          <t>[0.00, 0.02, 0.41]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[0.40576340256196275, 0.25985370027659094]</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
+          <t>[4]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>[0.40576340256196275]</t>
+        </is>
       </c>
       <c r="H138" t="b">
+        <v>1</v>
+      </c>
+      <c r="I138" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5418,23 +6108,28 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.26|x3: 0.21|x4: 0.32|x5: 0.19|x6: 0.25|x7: 0.31|x8: 0.20|x9: 0.20|x10: 0.16|x11: 0.25|x12: 0.35|x13: 0.40|x14: 0.17|x15: 0.20|x16: 0.28|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.26|x3: 0.03|x4: 0.32|x5: 0.00|x6: 0.25|x7: 0.31|x8: 0.32|x9: 0.42|x10: 0.36|x11: 0.25|x12: 0.35|x13: 0.40|x14: 0.00|x15: 0.20|x16: 0.28|x17: 0.00</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[13, 12, 4, 7, 16, 2, 6, 11, 3, 9, 15]</t>
+          <t>[0.00, 0.24, 0.42]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[0.39946241674804694, 0.3463853396418243, 0.321658817713125, 0.31296782240783083, 0.2803722060520303, 0.26453247451469153, 0.25447577901680174, 0.24583985889044513, 0.2054209022439601, 0.20094701499139966, 0.2008579522371292]</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
+          <t>[9, 13, 10, 12, 4, 8, 7, 16, 2, 6, 1, 11, 15]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>[0.41665586363536267, 0.39946244655037044, 0.3579423455966612, 0.3463853098395031, 0.321658817713125, 0.3204649180303768, 0.31296782240783083, 0.2803722060520303, 0.26453247451469153, 0.25447577901680174, 0.24659332768431153, 0.24583985889044513, 0.2008579522371292]</t>
+        </is>
       </c>
       <c r="H139" t="b">
+        <v>0</v>
+      </c>
+      <c r="I139" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5454,23 +6149,28 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.25|x3: 0.27|x4: 0.15|x5: 0.15|x6: 0.59|x7: 0.28|x8: 0.09|x9: 0.09|x10: 0.16|x11: 0.34|x12: 0.37|x13: 0.48|x14: 0.53|x15: 0.59|x16: 0.22|x17: 0.00</t>
+          <t>x1: 0.29|x2: 0.25|x3: 0.27|x4: 0.00|x5: 0.00|x6: 0.59|x7: 0.28|x8: 0.00|x9: 0.00|x10: 0.27|x11: 0.34|x12: 0.37|x13: 0.48|x14: 0.53|x15: 0.59|x16: 0.22|x17: 0.00</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[15, 6, 14, 13, 12, 11, 7, 3, 2, 16]</t>
+          <t>[0.00, 0.26, 0.59]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[0.5913894772529602, 0.5855739269368998, 0.5304408241389202, 0.4798692643593716, 0.3679830377157649, 0.33758579044825066, 0.2829497445750947, 0.26598381494592926, 0.2530706422977902, 0.22415100330311247]</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
+          <t>[15, 6, 14, 13, 12, 11, 1, 7, 3, 10, 2, 16]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>[0.5913894772529602, 0.5855739269368998, 0.5304408241389202, 0.4798691451500776, 0.3679830377157649, 0.33758579044825066, 0.29285620206176954, 0.2829497445750947, 0.26997813041253715, 0.26725942135689784, 0.2530706422977902, 0.22415100330311247]</t>
+        </is>
       </c>
       <c r="H140" t="b">
+        <v>1</v>
+      </c>
+      <c r="I140" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5490,12 +6190,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.09|x3: 0.01|x4: 0.02|x5: 0.00|x6: 0.00|x7: 0.10|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.01|x12: 0.11|x13: 0.12|x14: 0.11|x15: 0.12|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5503,10 +6203,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G141" t="b">
-        <v>0</v>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H141" t="b">
+        <v>0</v>
+      </c>
+      <c r="I141" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5526,23 +6231,28 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.42|x3: 0.27|x4: 0.28|x5: 0.17|x6: 0.28|x7: 0.32|x8: 0.18|x9: 0.18|x10: 0.21|x11: 0.30|x12: 0.33|x13: 0.28|x14: 0.17|x15: 0.28|x16: 0.26|x17: 0.00</t>
+          <t>x1: 0.34|x2: 0.42|x3: 0.27|x4: 0.28|x5: 0.00|x6: 0.28|x7: 0.32|x8: 0.32|x9: 0.34|x10: 0.43|x11: 0.30|x12: 0.33|x13: 0.28|x14: 0.00|x15: 0.28|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[2, 12, 7, 11, 15, 13, 4, 6, 3, 16, 10, 1]</t>
+          <t>[0.00, 0.26, 0.43]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[0.42453878831646197, 0.3334385260500472, 0.3213075255657105, 0.3018976882771107, 0.2836993336677551, 0.2793581589817311, 0.27758392743111315, 0.27582664016927194, 0.26536454518282937, 0.2569793496259589, 0.20837414371947882, 0.20754137615729362]</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
+          <t>[10, 2, 9, 1, 12, 8, 7, 11, 15, 13, 4, 6, 3, 16]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>[0.42940558493935, 0.42453878831646197, 0.3403105697746138, 0.3353131913757086, 0.3334385260500472, 0.32155234912127273, 0.3213075255657105, 0.3018976882771107, 0.2836993336677551, 0.2793581589817311, 0.27758392743111315, 0.27582664016927194, 0.27128943790860505, 0.2569793496259589]</t>
+        </is>
       </c>
       <c r="H142" t="b">
+        <v>1</v>
+      </c>
+      <c r="I142" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5562,23 +6272,28 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.14|x2: 0.27|x3: 0.31|x4: 0.20|x5: 0.15|x6: 0.21|x7: 0.28|x8: 0.20|x9: 0.20|x10: 0.14|x11: 0.22|x12: 0.29|x13: 0.18|x14: 0.16|x15: 0.20|x16: 0.21|x17: 0.00</t>
+          <t>x1: 0.22|x2: 0.27|x3: 0.31|x4: 0.00|x5: 0.00|x6: 0.21|x7: 0.28|x8: 0.30|x9: 0.43|x10: 0.28|x11: 0.22|x12: 0.29|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.21|x17: 0.00</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[3, 12, 7, 2, 11, 6, 16]</t>
+          <t>[0.00, 0.18, 0.43]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[0.31286465217078646, 0.28616073530829667, 0.27920934422919563, 0.2730335058371747, 0.22335701863218205, 0.20766661112631202, 0.20679690213422905]</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
+          <t>[9, 3, 8, 12, 10, 7, 2, 11, 1, 6, 16]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>[0.4317490112213528, 0.31362564340981336, 0.3012841516475966, 0.2861607343960665, 0.2826956446575951, 0.2792093153391026, 0.2730335058371747, 0.22335701863218205, 0.2167503013333476, 0.20766661112631202, 0.20679690213422905]</t>
+        </is>
       </c>
       <c r="H143" t="b">
+        <v>1</v>
+      </c>
+      <c r="I143" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5598,23 +6313,28 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.13|x3: 0.09|x4: 0.12|x5: 0.13|x6: 0.09|x7: 0.15|x8: 0.21|x9: 0.22|x10: 0.13|x11: 0.28|x12: 0.16|x13: 0.06|x14: 0.03|x15: 0.08|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.38|x9: 0.41|x10: 0.30|x11: 0.28|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[11, 9, 8]</t>
+          <t>[0.00, 0.08, 0.41]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[0.2821930055707216, 0.21624011178108649, 0.21155224434660813]</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
+          <t>[9, 8, 10, 11]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>[0.4141981555424836, 0.37625486709889555, 0.3032580585846858, 0.2821930055707216]</t>
+        </is>
       </c>
       <c r="H144" t="b">
+        <v>1</v>
+      </c>
+      <c r="I144" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5634,23 +6354,28 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.25|x3: 0.30|x4: 0.24|x5: 0.20|x6: 0.23|x7: 0.31|x8: 0.23|x9: 0.23|x10: 0.16|x11: 0.22|x12: 0.26|x13: 0.25|x14: 0.19|x15: 0.17|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.25|x3: 0.31|x4: 0.24|x5: 0.00|x6: 0.23|x7: 0.31|x8: 0.42|x9: 0.44|x10: 0.34|x11: 0.22|x12: 0.26|x13: 0.25|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[7, 3, 12, 2, 13, 4, 16, 9, 8, 6, 11]</t>
+          <t>[0.00, 0.22, 0.44]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[0.31017738610127565, 0.302263197869167, 0.2618164999356718, 0.25436179112160673, 0.2529251967715169, 0.2435630934462809, 0.2357177467085872, 0.23462946615707536, 0.2320505446883883, 0.23030147557001668, 0.2234209461159704]</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
+          <t>[9, 8, 10, 7, 3, 12, 2, 13, 1, 4, 16, 6, 11]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>[0.443116123492463, 0.41714364750182786, 0.33534643646270246, 0.3101773572111826, 0.30624617910914576, 0.2618164990234416, 0.25436179112160673, 0.2529251669691934, 0.2453677783173569, 0.2435630934462809, 0.2357177467085872, 0.23030147557001668, 0.2234209461159704]</t>
+        </is>
       </c>
       <c r="H145" t="b">
+        <v>1</v>
+      </c>
+      <c r="I145" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5670,23 +6395,28 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.17|x2: 0.19|x3: 0.20|x4: 0.25|x5: 0.23|x6: 0.18|x7: 0.20|x8: 0.26|x9: 0.26|x10: 0.17|x11: 0.24|x12: 0.25|x13: 0.18|x14: 0.13|x15: 0.13|x16: 0.24|x17: 0.00</t>
+          <t>x1: 0.23|x2: 0.00|x3: 0.03|x4: 0.25|x5: 0.23|x6: 0.00|x7: 0.20|x8: 0.51|x9: 0.46|x10: 0.40|x11: 0.24|x12: 0.25|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.24|x17: 0.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[9, 8, 4, 12, 16, 11, 5, 7, 3]</t>
+          <t>[0.00, 0.18, 0.51]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[0.26396380178423295, 0.2596355192012601, 0.2522772645303011, 0.24617525958125375, 0.24330872614525456, 0.24239322379499906, 0.22837031227902038, 0.20455604375944397, 0.20380970228907355]</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
+          <t>[8, 9, 10, 4, 12, 16, 11, 1, 5, 7]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>[0.5085145973185426, 0.45537119594919084, 0.40139630144236776, 0.2522772645303011, 0.24617526049348393, 0.24330872614525456, 0.24239322379499906, 0.23426173659954186, 0.22837031227902038, 0.204556072649537]</t>
+        </is>
       </c>
       <c r="H146" t="b">
+        <v>1</v>
+      </c>
+      <c r="I146" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5706,24 +6436,29 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.10|x3: 0.05|x4: 0.04|x5: 0.01|x6: 0.05|x7: 0.15|x8: 0.07|x9: 0.07|x10: 0.02|x11: 0.13|x12: 0.05|x13: 0.02|x14: 0.00|x15: 0.02|x16: 0.00|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.22|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.01, 0.22]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
+          <t>[9]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>[0.21806320304352933]</t>
+        </is>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -5742,23 +6477,28 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.21|x2: 0.29|x3: 0.33|x4: 0.30|x5: 0.30|x6: 0.31|x7: 0.39|x8: 0.25|x9: 0.25|x10: 0.21|x11: 0.31|x12: 0.38|x13: 0.46|x14: 0.24|x15: 0.29|x16: 0.40|x17: 0.00</t>
+          <t>x1: 0.35|x2: 0.29|x3: 0.33|x4: 0.30|x5: 0.30|x6: 0.31|x7: 0.39|x8: 0.42|x9: 0.51|x10: 0.41|x11: 0.31|x12: 0.38|x13: 0.46|x14: 0.24|x15: 0.29|x16: 0.40|x17: 0.00</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[13, 16, 7, 12, 3, 6, 11, 5, 4, 2, 15, 9, 8, 14, 10]</t>
+          <t>[0.00, 0.34, 0.51]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[0.45881833355197, 0.4044405572695357, 0.3886202578552806, 0.3792136566418992, 0.3250646665821717, 0.3104924640560418, 0.30930243677293845, 0.29956493228025627, 0.2950721566732266, 0.2918676201906001, 0.2886272072792053, 0.2536908715423307, 0.25211584769667894, 0.2434745955077335, 0.21150226201942224]</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
+          <t>[9, 13, 8, 10, 16, 7, 12, 1, 3, 6, 11, 5, 4, 2, 15, 14]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>[0.5140140595211007, 0.458818393156617, 0.4196637686516176, 0.41410927293339483, 0.4044405572695357, 0.38862022896518755, 0.37921365572966903, 0.3518861990568347, 0.33173995346733703, 0.3104924640560418, 0.30930243677293845, 0.29956493228025627, 0.2950721566732266, 0.2918676201906001, 0.2886272072792053, 0.2434745955077335]</t>
+        </is>
       </c>
       <c r="H148" t="b">
+        <v>1</v>
+      </c>
+      <c r="I148" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5778,23 +6518,28 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.06|x3: 0.12|x4: 0.17|x5: 0.21|x6: 0.06|x7: 0.04|x8: 0.06|x9: 0.06|x10: 0.07|x11: 0.14|x12: 0.07|x13: 0.04|x14: 0.06|x15: 0.03|x16: 0.26|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.21|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.26]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
           <t>[16, 5]</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>[0.26189533217487354, 0.2122500272430483]</t>
         </is>
       </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
       <c r="H149" t="b">
+        <v>0</v>
+      </c>
+      <c r="I149" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5814,24 +6559,29 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.16|x2: 0.18|x3: 0.19|x4: 0.32|x5: 0.24|x6: 0.14|x7: 0.22|x8: 0.18|x9: 0.18|x10: 0.17|x11: 0.23|x12: 0.20|x13: 0.20|x14: 0.04|x15: 0.05|x16: 0.29|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.00|x3: 0.03|x4: 0.32|x5: 0.24|x6: 0.00|x7: 0.22|x8: 0.36|x9: 0.31|x10: 0.36|x11: 0.23|x12: 0.01|x13: 0.20|x14: 0.00|x15: 0.00|x16: 0.29|x17: 0.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[4, 16, 5, 11, 7, 13]</t>
+          <t>[0.00, 0.16, 0.36]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[0.3163249930746481, 0.28744817154880087, 0.23699821884927474, 0.22563312046299688, 0.22131498450134268, 0.20293460052216772]</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
+          <t>[10, 8, 4, 9, 16, 1, 5, 11, 7, 13]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>[0.3581952867499646, 0.35720134779442114, 0.3163249930746481, 0.30982005249909994, 0.28744817154880087, 0.2507092181802637, 0.23699821884927474, 0.22563312046299688, 0.22131497005629616, 0.20293460052216772]</t>
+        </is>
       </c>
       <c r="H150" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -5850,24 +6600,29 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.12|x2: 0.12|x3: 0.10|x4: 0.18|x5: 0.17|x6: 0.08|x7: 0.14|x8: 0.20|x9: 0.21|x10: 0.12|x11: 0.17|x12: 0.07|x13: 0.02|x14: 0.00|x15: 0.00|x16: 0.12|x17: 0.00</t>
+          <t>x1: 0.19|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.39|x9: 0.37|x10: 0.25|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[9, 8]</t>
+          <t>[0.00, 0.07, 0.39]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[0.20847404349613924, 0.204091775073807]</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
+          <t>[8, 9, 10]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[0.3888661672044403, 0.37268876612906787, 0.24793026647191166]</t>
+        </is>
       </c>
       <c r="H151" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -5886,23 +6641,28 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.08|x2: 0.17|x3: 0.25|x4: 0.16|x5: 0.13|x6: 0.20|x7: 0.28|x8: 0.14|x9: 0.15|x10: 0.08|x11: 0.46|x12: 0.30|x13: 0.13|x14: 0.06|x15: 0.10|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.24|x4: 0.00|x5: 0.00|x6: 0.20|x7: 0.28|x8: 0.00|x9: 0.36|x10: 0.00|x11: 0.46|x12: 0.30|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[11, 12, 7, 3, 6]</t>
+          <t>[0.00, 0.11, 0.46]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[0.46292099840117373, 0.2956951333013528, 0.27955980994786483, 0.24629879789742937, 0.2007629625698205]</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
+          <t>[11, 9, 12, 7, 3, 6]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[0.46292099840117373, 0.36162590576381337, 0.2956951333013528, 0.27955980994786483, 0.23661705825133314, 0.2007629625698205]</t>
+        </is>
       </c>
       <c r="H152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5922,23 +6682,28 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.02|x2: 0.15|x3: 0.07|x4: 0.12|x5: 0.01|x6: 0.23|x7: 0.19|x8: 0.06|x9: 0.07|x10: 0.02|x11: 0.17|x12: 0.24|x13: 0.27|x14: 0.29|x15: 0.32|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.23|x7: 0.19|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.24|x13: 0.27|x14: 0.29|x15: 0.32|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
+          <t>[0.00, 0.09, 0.32]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
           <t>[15, 14, 13, 12, 6]</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>[0.32365161180496216, 0.28891594132701093, 0.26761768265134367, 0.24440237905976214, 0.2317816377523222]</t>
-        </is>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[0.32365161180496216, 0.28891594132701093, 0.26761768265134367, 0.24440237997199232, 0.2317816377523222]</t>
+        </is>
       </c>
       <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5958,23 +6723,28 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.05|x3: 0.06|x4: 0.00|x5: 0.00|x6: 0.14|x7: 0.13|x8: 0.02|x9: 0.01|x10: 0.03|x11: 0.18|x12: 0.11|x13: 0.20|x14: 0.14|x15: 0.27|x16: 0.10|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.20|x14: 0.00|x15: 0.27|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
+          <t>[0.00, 0.03, 0.27]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
           <t>[15, 13]</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>[0.26810717582702637, 0.2009829506644213]</t>
-        </is>
-      </c>
-      <c r="G154" t="b">
-        <v>0</v>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[0.26810717582702637, 0.20098296556558304]</t>
+        </is>
       </c>
       <c r="H154" t="b">
+        <v>0</v>
+      </c>
+      <c r="I154" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5994,23 +6764,28 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.10|x3: 0.19|x4: 0.11|x5: 0.18|x6: 0.18|x7: 0.17|x8: 0.12|x9: 0.12|x10: 0.09|x11: 0.12|x12: 0.19|x13: 0.13|x14: 0.14|x15: 0.07|x16: 0.26|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.24|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.26|x17: 0.00</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[0.00, 0.03, 0.26]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[0.256674024829116]</t>
-        </is>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
+          <t>[16, 9]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[0.256674024829116, 0.2445579739895689]</t>
+        </is>
       </c>
       <c r="H155" t="b">
+        <v>0</v>
+      </c>
+      <c r="I155" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6030,23 +6805,28 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.17|x2: 0.21|x3: 0.22|x4: 0.24|x5: 0.29|x6: 0.26|x7: 0.17|x8: 0.14|x9: 0.14|x10: 0.17|x11: 0.31|x12: 0.24|x13: 0.28|x14: 0.18|x15: 0.24|x16: 0.44|x17: 0.00</t>
+          <t>x1: 0.25|x2: 0.21|x3: 0.03|x4: 0.24|x5: 0.29|x6: 0.26|x7: 0.00|x8: 0.25|x9: 0.26|x10: 0.36|x11: 0.31|x12: 0.24|x13: 0.28|x14: 0.00|x15: 0.24|x16: 0.44|x17: 0.00</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[16, 11, 5, 13, 6, 12, 15, 4, 3, 2]</t>
+          <t>[0.00, 0.22, 0.44]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[0.4357257542201881, 0.3116322838534922, 0.2860418004697829, 0.28033543677387485, 0.2575947113452961, 0.24355367061916583, 0.2418951392173767, 0.23659386730486176, 0.2201234173119426, 0.2111495273456887]</t>
-        </is>
-      </c>
-      <c r="G156" t="b">
-        <v>1</v>
+          <t>[16, 10, 11, 5, 13, 9, 6, 1, 8, 15, 12, 4, 2]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[0.4357257542201881, 0.3622115811366021, 0.3116322838534922, 0.2860418004697829, 0.28033543677387485, 0.2606567115263263, 0.2575947113452961, 0.25389501816167126, 0.2493340740725603, 0.2418951392173767, 0.23821577943722277, 0.23659386730486176, 0.2111495273456887]</t>
+        </is>
       </c>
       <c r="H156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6066,23 +6846,28 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.09|x2: 0.18|x3: 0.09|x4: 0.04|x5: 0.06|x6: 0.25|x7: 0.19|x8: 0.08|x9: 0.08|x10: 0.09|x11: 0.27|x12: 0.32|x13: 0.30|x14: 0.58|x15: 0.55|x16: 0.09|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.25|x7: 0.00|x8: 0.00|x9: 0.20|x10: 0.00|x11: 0.27|x12: 0.32|x13: 0.30|x14: 0.58|x15: 0.55|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[14, 15, 12, 13, 11, 6]</t>
+          <t>[0.00, 0.15, 0.58]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[0.5785508935067148, 0.5499184727668762, 0.3235506425543032, 0.2955314031068754, 0.27352329345029736, 0.2543320722145008]</t>
-        </is>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
+          <t>[14, 15, 12, 13, 11, 6, 9]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[0.5785508935067148, 0.5499184727668762, 0.31770293602819577, 0.2955314031068754, 0.27352329345029736, 0.2543320722145008, 0.2011527843644531]</t>
+        </is>
       </c>
       <c r="H157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6102,23 +6887,28 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.07|x3: 0.03|x4: 0.01|x5: 0.00|x6: 0.19|x7: 0.13|x8: 0.03|x9: 0.03|x10: 0.01|x11: 0.08|x12: 0.17|x13: 0.27|x14: 0.40|x15: 0.19|x16: 0.02|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.27|x14: 0.40|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.40]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
           <t>[14, 13]</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>[0.39591140808629566, 0.27320153538888414]</t>
         </is>
       </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
       <c r="H158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6138,23 +6928,28 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.15|x3: 0.05|x4: 0.02|x5: 0.01|x6: 0.24|x7: 0.11|x8: 0.02|x9: 0.02|x10: 0.01|x11: 0.04|x12: 0.16|x13: 0.12|x14: 0.48|x15: 0.26|x16: 0.07|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.24|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.48|x15: 0.26|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
+          <t>[0.00, 0.06, 0.48]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
           <t>[14, 15, 6]</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>[0.48319394926409587, 0.25790244340896606, 0.24377161900103572]</t>
         </is>
       </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
       <c r="H159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6174,23 +6969,28 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.03|x2: 0.19|x3: 0.08|x4: 0.05|x5: 0.05|x6: 0.17|x7: 0.15|x8: 0.03|x9: 0.03|x10: 0.03|x11: 0.11|x12: 0.13|x13: 0.15|x14: 0.23|x15: 0.38|x16: 0.11|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.23|x15: 0.38|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.38]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
           <t>[15, 14]</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>[0.383293092250824, 0.22789690620125697]</t>
         </is>
       </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
       <c r="H160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6210,23 +7010,28 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.13|x2: 0.30|x3: 0.15|x4: 0.16|x5: 0.12|x6: 0.29|x7: 0.22|x8: 0.07|x9: 0.06|x10: 0.13|x11: 0.31|x12: 0.35|x13: 0.37|x14: 0.36|x15: 0.60|x16: 0.13|x17: 0.00</t>
+          <t>x1: 0.22|x2: 0.30|x3: 0.03|x4: 0.00|x5: 0.00|x6: 0.29|x7: 0.22|x8: 0.00|x9: 0.00|x10: 0.24|x11: 0.31|x12: 0.35|x13: 0.37|x14: 0.36|x15: 0.60|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[15, 13, 14, 12, 11, 2, 6, 7]</t>
+          <t>[0.00, 0.19, 0.60]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[0.6040888428688049, 0.3697548944411755, 0.35717714963855474, 0.3545620948640783, 0.31230051304989237, 0.3038979243061757, 0.29417151979804257, 0.2169871041134736]</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
+          <t>[15, 13, 14, 12, 11, 2, 6, 10, 1, 7]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[0.6040888428688049, 0.3697549540458225, 0.35717714963855474, 0.3545620948640783, 0.31230051304989237, 0.3038979243061757, 0.29417151979804257, 0.2398660374454049, 0.22248642850525124, 0.2169871041134736]</t>
+        </is>
       </c>
       <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6246,23 +7051,28 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.00|x2: 0.12|x3: 0.02|x4: 0.04|x5: 0.00|x6: 0.07|x7: 0.03|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.06|x12: 0.09|x13: 0.07|x14: 0.24|x15: 0.43|x16: 0.04|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.24|x15: 0.43|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.43]</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
           <t>[15, 14]</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>[0.4252917170524597, 0.2384406403703443]</t>
         </is>
       </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
       <c r="H162" t="b">
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6282,23 +7092,28 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.04|x3: 0.17|x4: 0.06|x5: 0.17|x6: 0.13|x7: 0.00|x8: 0.06|x9: 0.06|x10: 0.07|x11: 0.27|x12: 0.04|x13: 0.11|x14: 0.08|x15: 0.20|x16: 0.39|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.01|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.27|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.39|x17: 0.00</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
+          <t>[0.00, 0.04, 0.39]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
           <t>[16, 11]</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>[0.3913873783121102, 0.26558553348886127]</t>
         </is>
       </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
       <c r="H163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6318,23 +7133,28 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.07|x2: 0.09|x3: 0.11|x4: 0.30|x5: 0.24|x6: 0.05|x7: 0.00|x8: 0.03|x9: 0.03|x10: 0.07|x11: 0.08|x12: 0.06|x13: 0.15|x14: 0.01|x15: 0.05|x16: 0.36|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.30|x5: 0.24|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.36|x17: 0.00</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
+          <t>[0.00, 0.05, 0.36]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
           <t>[16, 4, 5]</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>[0.35722479689973136, 0.30403205557760415, 0.24030219376537487]</t>
         </is>
       </c>
-      <c r="G164" t="b">
-        <v>1</v>
-      </c>
       <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
         <v>1</v>
       </c>
     </row>
@@ -6354,12 +7174,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.01|x2: 0.02|x3: 0.02|x4: 0.00|x5: 0.06|x6: 0.08|x7: 0.05|x8: 0.01|x9: 0.01|x10: 0.01|x11: 0.10|x12: 0.06|x13: 0.09|x14: 0.00|x15: 0.06|x16: 0.14|x17: 0.00</t>
+          <t>x1: 0.00|x2: 0.00|x3: 0.00|x4: 0.00|x5: 0.00|x6: 0.00|x7: 0.00|x8: 0.00|x9: 0.00|x10: 0.00|x11: 0.00|x12: 0.00|x13: 0.00|x14: 0.00|x15: 0.00|x16: 0.00|x17: 0.00</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[0.00, 0.00, 0.00]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6367,10 +7187,15 @@
           <t>[]</t>
         </is>
       </c>
-      <c r="G165" t="b">
-        <v>0</v>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
       </c>
       <c r="H165" t="b">
+        <v>0</v>
+      </c>
+      <c r="I165" t="b">
         <v>0</v>
       </c>
     </row>
